--- a/ieee118_results.xlsx
+++ b/ieee118_results.xlsx
@@ -467,16 +467,16 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9550000000000002</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>10.94147947376145</v>
+        <v>10.94147949780971</v>
       </c>
       <c r="D2" t="n">
         <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>30.10408262452046</v>
+        <v>30.10408262986196</v>
       </c>
     </row>
     <row r="3">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9713927913955959</v>
+        <v>0.9713927913962899</v>
       </c>
       <c r="C3" t="n">
-        <v>11.48130519471776</v>
+        <v>11.48130521865829</v>
       </c>
       <c r="D3" t="n">
         <v>20</v>
@@ -501,10 +501,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9676919384832622</v>
+        <v>0.9676919384850413</v>
       </c>
       <c r="C4" t="n">
-        <v>11.82492185563933</v>
+        <v>11.82492187963502</v>
       </c>
       <c r="D4" t="n">
         <v>39</v>
@@ -518,16 +518,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9980000000000002</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>15.54278482565197</v>
+        <v>15.542784849581</v>
       </c>
       <c r="D5" t="n">
         <v>39</v>
       </c>
       <c r="E5" t="n">
-        <v>27.00934912701996</v>
+        <v>27.00934912932598</v>
       </c>
     </row>
     <row r="6">
@@ -535,16 +535,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.001984613662071</v>
+        <v>1.001984613662226</v>
       </c>
       <c r="C6" t="n">
-        <v>15.98786812013294</v>
+        <v>15.98786814406502</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>40.15892664062116</v>
+        <v>40.15892664063359</v>
       </c>
     </row>
     <row r="7">
@@ -552,16 +552,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.99</v>
+        <v>0.9899999999999998</v>
       </c>
       <c r="C7" t="n">
-        <v>13.26060026028877</v>
+        <v>13.26060028419518</v>
       </c>
       <c r="D7" t="n">
         <v>52</v>
       </c>
       <c r="E7" t="n">
-        <v>6.070246669150123</v>
+        <v>6.070246669421913</v>
       </c>
     </row>
     <row r="8">
@@ -569,10 +569,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.989327884950855</v>
+        <v>0.9893278849508601</v>
       </c>
       <c r="C8" t="n">
-        <v>12.81608144217548</v>
+        <v>12.81608146607057</v>
       </c>
       <c r="D8" t="n">
         <v>19</v>
@@ -589,13 +589,13 @@
         <v>1.015</v>
       </c>
       <c r="C9" t="n">
-        <v>21.00920830074578</v>
+        <v>21.00920832472308</v>
       </c>
       <c r="D9" t="n">
         <v>28</v>
       </c>
       <c r="E9" t="n">
-        <v>-63.13849517431152</v>
+        <v>-63.13849501017239</v>
       </c>
     </row>
     <row r="10">
@@ -603,10 +603,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.042918205113095</v>
+        <v>1.042918205130615</v>
       </c>
       <c r="C10" t="n">
-        <v>28.26331337235127</v>
+        <v>28.26331339597584</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>1.05</v>
       </c>
       <c r="C11" t="n">
-        <v>35.84422252025216</v>
+        <v>35.84422254347749</v>
       </c>
       <c r="D11" t="n">
         <v>-450</v>
       </c>
       <c r="E11" t="n">
-        <v>51.04215159113684</v>
+        <v>51.0421516492446</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9850885658612689</v>
+        <v>0.9850885658615028</v>
       </c>
       <c r="C12" t="n">
-        <v>12.97454718669013</v>
+        <v>12.97454721056963</v>
       </c>
       <c r="D12" t="n">
         <v>70</v>
@@ -654,16 +654,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9899999999999999</v>
+        <v>0.9900000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>12.45768060674941</v>
+        <v>12.45768063062584</v>
       </c>
       <c r="D13" t="n">
         <v>-38</v>
       </c>
       <c r="E13" t="n">
-        <v>-81.29187739947459</v>
+        <v>-81.29187738911577</v>
       </c>
     </row>
     <row r="14">
@@ -671,10 +671,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9683020626248443</v>
+        <v>0.9683020626260619</v>
       </c>
       <c r="C14" t="n">
-        <v>11.59853093264239</v>
+        <v>11.5985309563852</v>
       </c>
       <c r="D14" t="n">
         <v>34</v>
@@ -688,10 +688,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9835910315394759</v>
+        <v>0.9835910315400017</v>
       </c>
       <c r="C15" t="n">
-        <v>11.74026358518092</v>
+        <v>11.740263608913</v>
       </c>
       <c r="D15" t="n">
         <v>14</v>
@@ -705,16 +705,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9699999999999996</v>
+        <v>0.9700000000000004</v>
       </c>
       <c r="C16" t="n">
-        <v>11.44305403836844</v>
+        <v>11.443054061693</v>
       </c>
       <c r="D16" t="n">
         <v>90</v>
       </c>
       <c r="E16" t="n">
-        <v>22.83738008809082</v>
+        <v>22.8373801342135</v>
       </c>
     </row>
     <row r="17">
@@ -722,10 +722,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9838970760875222</v>
+        <v>0.9838970760926208</v>
       </c>
       <c r="C17" t="n">
-        <v>12.15625239191033</v>
+        <v>12.15625241560526</v>
       </c>
       <c r="D17" t="n">
         <v>25</v>
@@ -739,10 +739,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9950877645752011</v>
+        <v>0.9950877645881088</v>
       </c>
       <c r="C18" t="n">
-        <v>13.96444984841929</v>
+        <v>13.9644498715879</v>
       </c>
       <c r="D18" t="n">
         <v>11</v>
@@ -759,13 +759,13 @@
         <v>0.9729999999999999</v>
       </c>
       <c r="C19" t="n">
-        <v>11.74995219641497</v>
+        <v>11.74995221969269</v>
       </c>
       <c r="D19" t="n">
         <v>60</v>
       </c>
       <c r="E19" t="n">
-        <v>5.572066690342183</v>
+        <v>5.572066715301872</v>
       </c>
     </row>
     <row r="20">
@@ -776,13 +776,13 @@
         <v>0.962</v>
       </c>
       <c r="C20" t="n">
-        <v>11.2837527998002</v>
+        <v>11.28375282296929</v>
       </c>
       <c r="D20" t="n">
         <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>39.2724843552076</v>
+        <v>39.27248437786858</v>
       </c>
     </row>
     <row r="21">
@@ -790,10 +790,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9569299047082035</v>
+        <v>0.9569299047341663</v>
       </c>
       <c r="C21" t="n">
-        <v>12.1619920057067</v>
+        <v>12.16199202844269</v>
       </c>
       <c r="D21" t="n">
         <v>18</v>
@@ -807,10 +807,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.957718320370219</v>
+        <v>0.9577183204006352</v>
       </c>
       <c r="C22" t="n">
-        <v>13.75036244287108</v>
+        <v>13.75036246439708</v>
       </c>
       <c r="D22" t="n">
         <v>14</v>
@@ -824,10 +824,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9690120343830367</v>
+        <v>0.9690120344089734</v>
       </c>
       <c r="C23" t="n">
-        <v>16.30559477186972</v>
+        <v>16.30559479223947</v>
       </c>
       <c r="D23" t="n">
         <v>10</v>
@@ -841,10 +841,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9994672417745509</v>
+        <v>0.9994672417852187</v>
       </c>
       <c r="C24" t="n">
-        <v>21.22514204602074</v>
+        <v>21.22514206559506</v>
       </c>
       <c r="D24" t="n">
         <v>7</v>
@@ -858,16 +858,16 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9919999999999999</v>
+        <v>0.9920000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>21.09464530632905</v>
+        <v>21.09464532379321</v>
       </c>
       <c r="D25" t="n">
         <v>13</v>
       </c>
       <c r="E25" t="n">
-        <v>14.92346196327799</v>
+        <v>14.92346197340822</v>
       </c>
     </row>
     <row r="26">
@@ -878,13 +878,13 @@
         <v>1.05</v>
       </c>
       <c r="C26" t="n">
-        <v>28.15304451499691</v>
+        <v>28.15304453610903</v>
       </c>
       <c r="D26" t="n">
         <v>-220</v>
       </c>
       <c r="E26" t="n">
-        <v>-50.04914362656386</v>
+        <v>-50.04914361077357</v>
       </c>
     </row>
     <row r="27">
@@ -895,13 +895,13 @@
         <v>1.015</v>
       </c>
       <c r="C27" t="n">
-        <v>29.93206394348909</v>
+        <v>29.93206396500013</v>
       </c>
       <c r="D27" t="n">
         <v>-314</v>
       </c>
       <c r="E27" t="n">
-        <v>-10.12962470970308</v>
+        <v>-10.12962464823079</v>
       </c>
     </row>
     <row r="28">
@@ -909,16 +909,16 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9680000000000003</v>
+        <v>0.9679999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>15.57722585035015</v>
+        <v>15.57722587228905</v>
       </c>
       <c r="D28" t="n">
         <v>71</v>
       </c>
       <c r="E28" t="n">
-        <v>9.016375912328215</v>
+        <v>9.016375927906324</v>
       </c>
     </row>
     <row r="29">
@@ -926,10 +926,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9615680728615792</v>
+        <v>0.961568072866279</v>
       </c>
       <c r="C29" t="n">
-        <v>13.85124262627748</v>
+        <v>13.85124264842939</v>
       </c>
       <c r="D29" t="n">
         <v>17</v>
@@ -943,10 +943,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9632164363331265</v>
+        <v>0.9632164363369792</v>
       </c>
       <c r="C30" t="n">
-        <v>12.85732723804041</v>
+        <v>12.85732726058128</v>
       </c>
       <c r="D30" t="n">
         <v>24</v>
@@ -960,10 +960,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9853323266709654</v>
+        <v>0.9853323267213799</v>
       </c>
       <c r="C31" t="n">
-        <v>19.0022498493423</v>
+        <v>19.00224987243853</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9669999999999997</v>
+        <v>0.9669999999999999</v>
       </c>
       <c r="C32" t="n">
-        <v>12.97364084726185</v>
+        <v>12.97364086987507</v>
       </c>
       <c r="D32" t="n">
         <v>36</v>
       </c>
       <c r="E32" t="n">
-        <v>-5.586549955659166</v>
+        <v>-5.586549935709627</v>
       </c>
     </row>
     <row r="33">
@@ -994,16 +994,16 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9629999999999999</v>
+        <v>0.963</v>
       </c>
       <c r="C33" t="n">
-        <v>15.03354196852326</v>
+        <v>15.03354199050926</v>
       </c>
       <c r="D33" t="n">
         <v>59</v>
       </c>
       <c r="E33" t="n">
-        <v>39.27750174775682</v>
+        <v>39.27750177311219</v>
       </c>
     </row>
     <row r="34">
@@ -1011,10 +1011,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.97093438530447</v>
+        <v>0.970934385324064</v>
       </c>
       <c r="C34" t="n">
-        <v>10.82131074899219</v>
+        <v>10.82131077129393</v>
       </c>
       <c r="D34" t="n">
         <v>23</v>
@@ -1031,13 +1031,13 @@
         <v>0.984</v>
       </c>
       <c r="C35" t="n">
-        <v>11.47756157179322</v>
+        <v>11.4775615930354</v>
       </c>
       <c r="D35" t="n">
         <v>59</v>
       </c>
       <c r="E35" t="n">
-        <v>33.27758867630119</v>
+        <v>33.27758899609576</v>
       </c>
     </row>
     <row r="36">
@@ -1045,10 +1045,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.980452567559317</v>
+        <v>0.9804525675639398</v>
       </c>
       <c r="C36" t="n">
-        <v>11.02113933548565</v>
+        <v>11.02113935662747</v>
       </c>
       <c r="D36" t="n">
         <v>33</v>
@@ -1062,16 +1062,16 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.98</v>
+        <v>0.9799999999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>11.02161686879268</v>
+        <v>11.02161689000661</v>
       </c>
       <c r="D37" t="n">
         <v>31</v>
       </c>
       <c r="E37" t="n">
-        <v>9.275696686048093</v>
+        <v>9.27569673037226</v>
       </c>
     </row>
     <row r="38">
@@ -1079,16 +1079,16 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9906619613502115</v>
+        <v>0.9906619613766373</v>
       </c>
       <c r="C38" t="n">
-        <v>11.93269079533875</v>
+        <v>11.93269081604338</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>24.5352780416562</v>
+        <v>24.53527804296515</v>
       </c>
     </row>
     <row r="39">
@@ -1096,10 +1096,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9612918311137191</v>
+        <v>0.9612918312561463</v>
       </c>
       <c r="C39" t="n">
-        <v>17.07266636098091</v>
+        <v>17.07266637959968</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -1113,10 +1113,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.969961354922408</v>
+        <v>0.9699613549331575</v>
       </c>
       <c r="C40" t="n">
-        <v>8.542696523142832</v>
+        <v>8.542696542495658</v>
       </c>
       <c r="D40" t="n">
         <v>27</v>
@@ -1133,13 +1133,13 @@
         <v>0.9700000000000002</v>
       </c>
       <c r="C41" t="n">
-        <v>7.461675319940661</v>
+        <v>7.46167533853293</v>
       </c>
       <c r="D41" t="n">
         <v>66</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.453106325676401</v>
+        <v>-5.453106284176499</v>
       </c>
     </row>
     <row r="42">
@@ -1147,10 +1147,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9668324561377061</v>
+        <v>0.9668324561431715</v>
       </c>
       <c r="C42" t="n">
-        <v>7.01776127237394</v>
+        <v>7.017761290089618</v>
       </c>
       <c r="D42" t="n">
         <v>37</v>
@@ -1164,16 +1164,16 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9850000000000001</v>
+        <v>0.985</v>
       </c>
       <c r="C43" t="n">
-        <v>8.619212348630224</v>
+        <v>8.619212363903731</v>
       </c>
       <c r="D43" t="n">
         <v>96</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.03005766491503</v>
+        <v>-18.03005764306124</v>
       </c>
     </row>
     <row r="44">
@@ -1181,10 +1181,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9771210781792418</v>
+        <v>0.9771210782413754</v>
       </c>
       <c r="C44" t="n">
-        <v>11.42703796256576</v>
+        <v>11.42703798112708</v>
       </c>
       <c r="D44" t="n">
         <v>18</v>
@@ -1198,16 +1198,16 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9844356749811686</v>
+        <v>0.9844356750481064</v>
       </c>
       <c r="C45" t="n">
-        <v>13.91073932284946</v>
+        <v>13.91073933434157</v>
       </c>
       <c r="D45" t="n">
         <v>16</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.69113598175629</v>
+        <v>-1.691135983074211</v>
       </c>
     </row>
     <row r="46">
@@ -1215,16 +1215,16 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9863826108428018</v>
+        <v>0.986382610881624</v>
       </c>
       <c r="C46" t="n">
-        <v>15.74032732380973</v>
+        <v>15.74032733305987</v>
       </c>
       <c r="D46" t="n">
         <v>53</v>
       </c>
       <c r="E46" t="n">
-        <v>12.27049345026938</v>
+        <v>12.2704934495035</v>
       </c>
     </row>
     <row r="47">
@@ -1235,13 +1235,13 @@
         <v>1.005</v>
       </c>
       <c r="C47" t="n">
-        <v>18.5447299371191</v>
+        <v>18.5447299456514</v>
       </c>
       <c r="D47" t="n">
         <v>9</v>
       </c>
       <c r="E47" t="n">
-        <v>4.919225040548973</v>
+        <v>4.919225089477564</v>
       </c>
     </row>
     <row r="48">
@@ -1249,10 +1249,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.017040717471402</v>
+        <v>1.017040717493906</v>
       </c>
       <c r="C48" t="n">
-        <v>20.77077656372448</v>
+        <v>20.77077657085491</v>
       </c>
       <c r="D48" t="n">
         <v>34</v>
@@ -1266,16 +1266,16 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.020633919600717</v>
+        <v>1.020633919601026</v>
       </c>
       <c r="C49" t="n">
-        <v>19.98559315818867</v>
+        <v>19.98559316611693</v>
       </c>
       <c r="D49" t="n">
         <v>20</v>
       </c>
       <c r="E49" t="n">
-        <v>-4.625403967592851</v>
+        <v>-4.625403967602294</v>
       </c>
     </row>
     <row r="50">
@@ -1286,13 +1286,13 @@
         <v>1.025</v>
       </c>
       <c r="C50" t="n">
-        <v>20.98819847752553</v>
+        <v>20.98819848529415</v>
       </c>
       <c r="D50" t="n">
         <v>-117</v>
       </c>
       <c r="E50" t="n">
-        <v>-85.89882905295582</v>
+        <v>-85.89882893873789</v>
       </c>
     </row>
     <row r="51">
@@ -1300,10 +1300,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.001081491227305</v>
+        <v>1.001081491227561</v>
       </c>
       <c r="C51" t="n">
-        <v>18.94858316892726</v>
+        <v>18.94858317656352</v>
       </c>
       <c r="D51" t="n">
         <v>17</v>
@@ -1317,10 +1317,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.9668744184406923</v>
+        <v>0.9668744184631567</v>
       </c>
       <c r="C52" t="n">
-        <v>16.32882559387135</v>
+        <v>16.32882560122603</v>
       </c>
       <c r="D52" t="n">
         <v>17</v>
@@ -1334,10 +1334,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.9568155547618149</v>
+        <v>0.956815554796829</v>
       </c>
       <c r="C53" t="n">
-        <v>15.37520953146547</v>
+        <v>15.37520953883643</v>
       </c>
       <c r="D53" t="n">
         <v>18</v>
@@ -1351,10 +1351,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.9459816713824775</v>
+        <v>0.9459816714422241</v>
       </c>
       <c r="C54" t="n">
-        <v>14.39973123365321</v>
+        <v>14.39973124130216</v>
       </c>
       <c r="D54" t="n">
         <v>23</v>
@@ -1368,16 +1368,16 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.9550000000000001</v>
+        <v>0.955</v>
       </c>
       <c r="C55" t="n">
-        <v>15.31106533938946</v>
+        <v>15.31106534665273</v>
       </c>
       <c r="D55" t="n">
         <v>65</v>
       </c>
       <c r="E55" t="n">
-        <v>28.09472356412721</v>
+        <v>28.0947236108658</v>
       </c>
     </row>
     <row r="56">
@@ -1385,16 +1385,16 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.9519999999999997</v>
+        <v>0.9520000000000001</v>
       </c>
       <c r="C56" t="n">
-        <v>15.02095934847683</v>
+        <v>15.02095935563738</v>
       </c>
       <c r="D56" t="n">
         <v>63</v>
       </c>
       <c r="E56" t="n">
-        <v>17.33578720386856</v>
+        <v>17.33578720393211</v>
       </c>
     </row>
     <row r="57">
@@ -1402,16 +1402,16 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.954</v>
+        <v>0.9539999999999998</v>
       </c>
       <c r="C57" t="n">
-        <v>15.20776563417384</v>
+        <v>15.20776564139206</v>
       </c>
       <c r="D57" t="n">
         <v>84</v>
       </c>
       <c r="E57" t="n">
-        <v>20.28532098790271</v>
+        <v>20.28532100899304</v>
       </c>
     </row>
     <row r="58">
@@ -1419,10 +1419,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.9705812340447886</v>
+        <v>0.9705812340458091</v>
       </c>
       <c r="C58" t="n">
-        <v>16.41334408274268</v>
+        <v>16.41334409014495</v>
       </c>
       <c r="D58" t="n">
         <v>12</v>
@@ -1436,10 +1436,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.9590372242565394</v>
+        <v>0.9590372242755695</v>
       </c>
       <c r="C59" t="n">
-        <v>15.55638562701239</v>
+        <v>15.5563856344024</v>
       </c>
       <c r="D59" t="n">
         <v>12</v>
@@ -1453,16 +1453,16 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9850000000000001</v>
+        <v>0.985</v>
       </c>
       <c r="C60" t="n">
-        <v>19.4083542014609</v>
+        <v>19.40835420750398</v>
       </c>
       <c r="D60" t="n">
         <v>122</v>
       </c>
       <c r="E60" t="n">
-        <v>36.168202903701</v>
+        <v>36.16820291021008</v>
       </c>
     </row>
     <row r="61">
@@ -1470,10 +1470,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.9931563181023113</v>
+        <v>0.993156318102395</v>
       </c>
       <c r="C61" t="n">
-        <v>23.18895771904966</v>
+        <v>23.18895772457715</v>
       </c>
       <c r="D61" t="n">
         <v>78</v>
@@ -1487,16 +1487,16 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.995</v>
+        <v>0.9950000000000003</v>
       </c>
       <c r="C62" t="n">
-        <v>24.0801780644436</v>
+        <v>24.08017806991672</v>
       </c>
       <c r="D62" t="n">
         <v>-160</v>
       </c>
       <c r="E62" t="n">
-        <v>40.39461065218779</v>
+        <v>40.39461065756655</v>
       </c>
     </row>
     <row r="63">
@@ -1507,13 +1507,13 @@
         <v>0.9980000000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>23.46387473651087</v>
+        <v>23.46387474206852</v>
       </c>
       <c r="D63" t="n">
         <v>77</v>
       </c>
       <c r="E63" t="n">
-        <v>12.74040467766588</v>
+        <v>12.74040467755873</v>
       </c>
     </row>
     <row r="64">
@@ -1521,10 +1521,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.9687396586781314</v>
+        <v>0.9687396586809878</v>
       </c>
       <c r="C64" t="n">
-        <v>22.78605747664336</v>
+        <v>22.78605748215232</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.9837407010164966</v>
+        <v>0.9837407010184774</v>
       </c>
       <c r="C65" t="n">
-        <v>24.55133234252359</v>
+        <v>24.55133234771781</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -1558,13 +1558,13 @@
         <v>1.005</v>
       </c>
       <c r="C66" t="n">
-        <v>27.67526485800342</v>
+        <v>27.6752648624834</v>
       </c>
       <c r="D66" t="n">
         <v>-391</v>
       </c>
       <c r="E66" t="n">
-        <v>-182.3986519334519</v>
+        <v>-182.3986517272741</v>
       </c>
     </row>
     <row r="67">
@@ -1575,13 +1575,13 @@
         <v>1.05</v>
       </c>
       <c r="C67" t="n">
-        <v>27.51907631776211</v>
+        <v>27.5190763236111</v>
       </c>
       <c r="D67" t="n">
         <v>-353</v>
       </c>
       <c r="E67" t="n">
-        <v>19.94060266799886</v>
+        <v>19.94060266277904</v>
       </c>
     </row>
     <row r="68">
@@ -1589,10 +1589,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.01968132934723</v>
+        <v>1.019681329347168</v>
       </c>
       <c r="C68" t="n">
-        <v>24.87875007687531</v>
+        <v>24.87875008259273</v>
       </c>
       <c r="D68" t="n">
         <v>28</v>
@@ -1606,10 +1606,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.9974026589002968</v>
+        <v>0.9974026589038734</v>
       </c>
       <c r="C69" t="n">
-        <v>27.57764695000144</v>
+        <v>27.57764695316816</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -1629,10 +1629,10 @@
         <v>29.99999999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>-514.169693911414</v>
+        <v>-514.1696934192596</v>
       </c>
       <c r="E70" t="n">
-        <v>64.8587962656643</v>
+        <v>64.8587962621981</v>
       </c>
     </row>
     <row r="71">
@@ -1640,16 +1640,16 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.9839999999999999</v>
+        <v>0.9840000000000001</v>
       </c>
       <c r="C71" t="n">
-        <v>22.61655587355293</v>
+        <v>22.61655588107976</v>
       </c>
       <c r="D71" t="n">
         <v>66</v>
       </c>
       <c r="E71" t="n">
-        <v>10.30120043829174</v>
+        <v>10.30120050753465</v>
       </c>
     </row>
     <row r="72">
@@ -1657,10 +1657,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.9868441639074953</v>
+        <v>0.986844163913127</v>
       </c>
       <c r="C72" t="n">
-        <v>22.20399200818333</v>
+        <v>22.20399201674956</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -1677,13 +1677,13 @@
         <v>0.9800000000000001</v>
       </c>
       <c r="C73" t="n">
-        <v>21.09779908517533</v>
+        <v>21.09779909873676</v>
       </c>
       <c r="D73" t="n">
         <v>12</v>
       </c>
       <c r="E73" t="n">
-        <v>11.1285255439941</v>
+        <v>11.12852555073437</v>
       </c>
     </row>
     <row r="74">
@@ -1691,16 +1691,16 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.9909999999999998</v>
+        <v>0.9909999999999999</v>
       </c>
       <c r="C74" t="n">
-        <v>21.99249459199043</v>
+        <v>21.9924946006237</v>
       </c>
       <c r="D74" t="n">
         <v>6</v>
       </c>
       <c r="E74" t="n">
-        <v>-9.652163024724473</v>
+        <v>-9.652163012398319</v>
       </c>
     </row>
     <row r="75">
@@ -1708,16 +1708,16 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.9580000000000003</v>
+        <v>0.9580000000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>21.6721398264959</v>
+        <v>21.67213983313619</v>
       </c>
       <c r="D75" t="n">
         <v>68</v>
       </c>
       <c r="E75" t="n">
-        <v>21.61353163026587</v>
+        <v>21.61353170483932</v>
       </c>
     </row>
     <row r="76">
@@ -1725,10 +1725,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.9673326524681624</v>
+        <v>0.9673326524970874</v>
       </c>
       <c r="C76" t="n">
-        <v>22.93531862443835</v>
+        <v>22.93531862975292</v>
       </c>
       <c r="D76" t="n">
         <v>47</v>
@@ -1742,16 +1742,16 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.9429999999999999</v>
+        <v>0.9429999999999998</v>
       </c>
       <c r="C77" t="n">
-        <v>21.8097170551135</v>
+        <v>21.80971706171265</v>
       </c>
       <c r="D77" t="n">
         <v>68</v>
       </c>
       <c r="E77" t="n">
-        <v>30.72584340555818</v>
+        <v>30.72584348795851</v>
       </c>
     </row>
     <row r="78">
@@ -1762,13 +1762,13 @@
         <v>1.006</v>
       </c>
       <c r="C78" t="n">
-        <v>26.76978103689303</v>
+        <v>26.76978104063821</v>
       </c>
       <c r="D78" t="n">
         <v>61</v>
       </c>
       <c r="E78" t="n">
-        <v>15.81352755921341</v>
+        <v>15.81352758747641</v>
       </c>
     </row>
     <row r="79">
@@ -1776,10 +1776,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.003424278025213</v>
+        <v>1.003424278025216</v>
       </c>
       <c r="C79" t="n">
-        <v>26.4665959806401</v>
+        <v>26.46659598438001</v>
       </c>
       <c r="D79" t="n">
         <v>71</v>
@@ -1793,16 +1793,16 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.009222590744905</v>
+        <v>1.009222590744921</v>
       </c>
       <c r="C80" t="n">
-        <v>26.76703321748452</v>
+        <v>26.76703322121445</v>
       </c>
       <c r="D80" t="n">
         <v>39</v>
       </c>
       <c r="E80" t="n">
-        <v>11.62939524660285</v>
+        <v>11.62939524660218</v>
       </c>
     </row>
     <row r="81">
@@ -1813,13 +1813,13 @@
         <v>1.04</v>
       </c>
       <c r="C81" t="n">
-        <v>29.01615776906021</v>
+        <v>29.01615777276214</v>
       </c>
       <c r="D81" t="n">
         <v>-347</v>
       </c>
       <c r="E81" t="n">
-        <v>-120.1059538103991</v>
+        <v>-120.1059538008159</v>
       </c>
     </row>
     <row r="82">
@@ -1827,10 +1827,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.9832434854078627</v>
+        <v>0.9832434854105968</v>
       </c>
       <c r="C82" t="n">
-        <v>28.16946501647641</v>
+        <v>28.1694650198593</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -1844,16 +1844,16 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.9885459850663479</v>
+        <v>0.9885459850678141</v>
       </c>
       <c r="C83" t="n">
-        <v>27.29394811103861</v>
+        <v>27.29394811495204</v>
       </c>
       <c r="D83" t="n">
         <v>54</v>
       </c>
       <c r="E83" t="n">
-        <v>7.455536708184077</v>
+        <v>7.4555367081261</v>
       </c>
     </row>
     <row r="84">
@@ -1861,16 +1861,16 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.9843772694867933</v>
+        <v>0.9843772694879646</v>
       </c>
       <c r="C84" t="n">
-        <v>28.48633987450742</v>
+        <v>28.48633987848127</v>
       </c>
       <c r="D84" t="n">
         <v>20</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3100139131772508</v>
+        <v>0.3100139131541937</v>
       </c>
     </row>
     <row r="85">
@@ -1878,10 +1878,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.9797038106082977</v>
+        <v>0.9797038106087819</v>
       </c>
       <c r="C85" t="n">
-        <v>31.02299867841284</v>
+        <v>31.02299868247271</v>
       </c>
       <c r="D85" t="n">
         <v>11</v>
@@ -1895,16 +1895,16 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.9850000000000003</v>
+        <v>0.9850000000000002</v>
       </c>
       <c r="C86" t="n">
-        <v>32.57845459869063</v>
+        <v>32.57845460278652</v>
       </c>
       <c r="D86" t="n">
         <v>24</v>
       </c>
       <c r="E86" t="n">
-        <v>17.86787916490937</v>
+        <v>17.86787916654816</v>
       </c>
     </row>
     <row r="87">
@@ -1912,10 +1912,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.9832489321901591</v>
+        <v>0.9832489321901681</v>
       </c>
       <c r="C87" t="n">
-        <v>31.26051470704705</v>
+        <v>31.26051471114315</v>
       </c>
       <c r="D87" t="n">
         <v>21</v>
@@ -1932,13 +1932,13 @@
         <v>1.015</v>
       </c>
       <c r="C88" t="n">
-        <v>31.49376350187755</v>
+        <v>31.49376350597394</v>
       </c>
       <c r="D88" t="n">
         <v>-4</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.24797856802127</v>
+        <v>-17.24797856801683</v>
       </c>
     </row>
     <row r="89">
@@ -1946,10 +1946,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.987452930764516</v>
+        <v>0.9874529307645051</v>
       </c>
       <c r="C89" t="n">
-        <v>35.7136006691352</v>
+        <v>35.71360067327068</v>
       </c>
       <c r="D89" t="n">
         <v>48</v>
@@ -1966,13 +1966,13 @@
         <v>1.005</v>
       </c>
       <c r="C90" t="n">
-        <v>39.77187892050106</v>
+        <v>39.77187892466367</v>
       </c>
       <c r="D90" t="n">
         <v>-607</v>
       </c>
       <c r="E90" t="n">
-        <v>5.903877464391257</v>
+        <v>5.903877464324069</v>
       </c>
     </row>
     <row r="91">
@@ -1980,16 +1980,16 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.9850000000000003</v>
+        <v>0.985</v>
       </c>
       <c r="C91" t="n">
-        <v>33.36196977534843</v>
+        <v>33.3619697795171</v>
       </c>
       <c r="D91" t="n">
         <v>163</v>
       </c>
       <c r="E91" t="n">
-        <v>-17.30829905707321</v>
+        <v>-17.30829905706241</v>
       </c>
     </row>
     <row r="92">
@@ -1997,16 +1997,16 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.9800000000000001</v>
+        <v>0.9799999999999995</v>
       </c>
       <c r="C92" t="n">
-        <v>33.37431872034718</v>
+        <v>33.37431872452373</v>
       </c>
       <c r="D92" t="n">
         <v>10</v>
       </c>
       <c r="E92" t="n">
-        <v>13.08800588793019</v>
+        <v>13.08800588792894</v>
       </c>
     </row>
     <row r="93">
@@ -2014,16 +2014,16 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.9900000000000001</v>
+        <v>0.9899999999999995</v>
       </c>
       <c r="C93" t="n">
-        <v>33.90461005930117</v>
+        <v>33.90461006348957</v>
       </c>
       <c r="D93" t="n">
         <v>65</v>
       </c>
       <c r="E93" t="n">
-        <v>23.95920257636328</v>
+        <v>23.95920257848525</v>
       </c>
     </row>
     <row r="94">
@@ -2031,10 +2031,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.9854335802328132</v>
+        <v>0.9854335802335604</v>
       </c>
       <c r="C94" t="n">
-        <v>30.87304088998831</v>
+        <v>30.87304089415812</v>
       </c>
       <c r="D94" t="n">
         <v>12</v>
@@ -2048,10 +2048,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.9898310623442603</v>
+        <v>0.9898310623456374</v>
       </c>
       <c r="C95" t="n">
-        <v>28.70626838475734</v>
+        <v>28.7062683889111</v>
       </c>
       <c r="D95" t="n">
         <v>30</v>
@@ -2065,10 +2065,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.9803327111498521</v>
+        <v>0.9803327111516935</v>
       </c>
       <c r="C96" t="n">
-        <v>27.733527889425</v>
+        <v>27.73352789349313</v>
       </c>
       <c r="D96" t="n">
         <v>42</v>
@@ -2082,10 +2082,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.9922838137798671</v>
+        <v>0.9922838137816063</v>
       </c>
       <c r="C97" t="n">
-        <v>27.56644007807928</v>
+        <v>27.56644008203646</v>
       </c>
       <c r="D97" t="n">
         <v>38</v>
@@ -2099,10 +2099,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.01116651289031</v>
+        <v>1.011166512891566</v>
       </c>
       <c r="C98" t="n">
-        <v>27.94081022958396</v>
+        <v>27.94081023340192</v>
       </c>
       <c r="D98" t="n">
         <v>15</v>
@@ -2116,10 +2116,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.023508499319967</v>
+        <v>1.023508499322443</v>
       </c>
       <c r="C99" t="n">
-        <v>27.45884799627319</v>
+        <v>27.45884800020908</v>
       </c>
       <c r="D99" t="n">
         <v>34</v>
@@ -2136,13 +2136,13 @@
         <v>1.01</v>
       </c>
       <c r="C100" t="n">
-        <v>27.09172194406155</v>
+        <v>27.09172194822154</v>
       </c>
       <c r="D100" t="n">
         <v>42</v>
       </c>
       <c r="E100" t="n">
-        <v>17.53543452999668</v>
+        <v>17.53543453021564</v>
       </c>
     </row>
     <row r="101">
@@ -2153,13 +2153,13 @@
         <v>1.017</v>
       </c>
       <c r="C101" t="n">
-        <v>28.08334090530649</v>
+        <v>28.08334090961988</v>
       </c>
       <c r="D101" t="n">
-        <v>-214.9999999999995</v>
+        <v>-215</v>
       </c>
       <c r="E101" t="n">
-        <v>-77.54896578188482</v>
+        <v>-77.54896577392378</v>
       </c>
     </row>
     <row r="102">
@@ -2167,10 +2167,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.9914199132699417</v>
+        <v>0.9914199132700919</v>
       </c>
       <c r="C102" t="n">
-        <v>29.67109116624477</v>
+        <v>29.67109117050604</v>
       </c>
       <c r="D102" t="n">
         <v>22</v>
@@ -2184,10 +2184,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.989131029252162</v>
+        <v>0.9891310292522618</v>
       </c>
       <c r="C103" t="n">
-        <v>32.38892913859051</v>
+        <v>32.3889291428026</v>
       </c>
       <c r="D103" t="n">
         <v>5</v>
@@ -2204,13 +2204,13 @@
         <v>1.01</v>
       </c>
       <c r="C104" t="n">
-        <v>24.34225100961932</v>
+        <v>24.34225101410848</v>
       </c>
       <c r="D104" t="n">
         <v>-17</v>
       </c>
       <c r="E104" t="n">
-        <v>-59.42236358206844</v>
+        <v>-59.4223635809974</v>
       </c>
     </row>
     <row r="105">
@@ -2218,16 +2218,16 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.9709999999999998</v>
+        <v>0.9709999999999999</v>
       </c>
       <c r="C105" t="n">
-        <v>21.77226592933118</v>
+        <v>21.77226593394272</v>
       </c>
       <c r="D105" t="n">
         <v>38</v>
       </c>
       <c r="E105" t="n">
-        <v>22.61174821865131</v>
+        <v>22.61174821910367</v>
       </c>
     </row>
     <row r="106">
@@ -2235,16 +2235,16 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.9650000000000002</v>
+        <v>0.965</v>
       </c>
       <c r="C106" t="n">
-        <v>20.66806420454181</v>
+        <v>20.66806420922956</v>
       </c>
       <c r="D106" t="n">
         <v>31</v>
       </c>
       <c r="E106" t="n">
-        <v>25.71002525238998</v>
+        <v>25.71002526764324</v>
       </c>
     </row>
     <row r="107">
@@ -2252,10 +2252,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.9611463175338697</v>
+        <v>0.9611463175408252</v>
       </c>
       <c r="C107" t="n">
-        <v>20.40790327207131</v>
+        <v>20.40790327673757</v>
       </c>
       <c r="D107" t="n">
         <v>43</v>
@@ -2272,13 +2272,13 @@
         <v>0.9519999999999998</v>
       </c>
       <c r="C108" t="n">
-        <v>17.60716670255008</v>
+        <v>17.60716670737413</v>
       </c>
       <c r="D108" t="n">
         <v>50</v>
       </c>
       <c r="E108" t="n">
-        <v>0.004357168642272313</v>
+        <v>0.004357172736703774</v>
       </c>
     </row>
     <row r="109">
@@ -2286,10 +2286,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.966211753599049</v>
+        <v>0.9662117536007472</v>
       </c>
       <c r="C109" t="n">
-        <v>19.46798347477783</v>
+        <v>19.46798347944285</v>
       </c>
       <c r="D109" t="n">
         <v>2</v>
@@ -2303,10 +2303,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.9670255274953026</v>
+        <v>0.9670255274969444</v>
       </c>
       <c r="C110" t="n">
-        <v>19.0153852874299</v>
+        <v>19.01538529211127</v>
       </c>
       <c r="D110" t="n">
         <v>8</v>
@@ -2320,16 +2320,16 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.973</v>
+        <v>0.9730000000000002</v>
       </c>
       <c r="C111" t="n">
-        <v>18.16852578404367</v>
+        <v>18.16852578869717</v>
       </c>
       <c r="D111" t="n">
         <v>39</v>
       </c>
       <c r="E111" t="n">
-        <v>24.03879236849323</v>
+        <v>24.03879237060951</v>
       </c>
     </row>
     <row r="112">
@@ -2340,13 +2340,13 @@
         <v>0.98</v>
       </c>
       <c r="C112" t="n">
-        <v>19.81360668163863</v>
+        <v>19.81360668629214</v>
       </c>
       <c r="D112" t="n">
         <v>-36</v>
       </c>
       <c r="E112" t="n">
-        <v>1.843824784922958</v>
+        <v>1.843824784923413</v>
       </c>
     </row>
     <row r="113">
@@ -2357,13 +2357,13 @@
         <v>0.9750000000000003</v>
       </c>
       <c r="C113" t="n">
-        <v>15.06930821060072</v>
+        <v>15.06930821525421</v>
       </c>
       <c r="D113" t="n">
         <v>68</v>
       </c>
       <c r="E113" t="n">
-        <v>-28.51169339686032</v>
+        <v>-28.51169339685998</v>
       </c>
     </row>
     <row r="114">
@@ -2371,16 +2371,16 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.9930000000000001</v>
+        <v>0.993</v>
       </c>
       <c r="C114" t="n">
-        <v>13.96225750697861</v>
+        <v>13.96225753020727</v>
       </c>
       <c r="D114" t="n">
         <v>6</v>
       </c>
       <c r="E114" t="n">
-        <v>-6.755642922484753</v>
+        <v>-6.755642879525681</v>
       </c>
     </row>
     <row r="115">
@@ -2388,10 +2388,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.9600930747942565</v>
+        <v>0.9600930748007456</v>
       </c>
       <c r="C115" t="n">
-        <v>14.69925973651032</v>
+        <v>14.69925975848487</v>
       </c>
       <c r="D115" t="n">
         <v>8</v>
@@ -2405,10 +2405,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.9600228690360511</v>
+        <v>0.9600228690425635</v>
       </c>
       <c r="C116" t="n">
-        <v>14.69097134454048</v>
+        <v>14.69097136652116</v>
       </c>
       <c r="D116" t="n">
         <v>22</v>
@@ -2425,13 +2425,13 @@
         <v>1.005</v>
       </c>
       <c r="C117" t="n">
-        <v>27.11181395667059</v>
+        <v>27.11181395985682</v>
       </c>
       <c r="D117" t="n">
         <v>184</v>
       </c>
       <c r="E117" t="n">
-        <v>-213.0437552727168</v>
+        <v>-213.0437551838858</v>
       </c>
     </row>
     <row r="118">
@@ -2439,10 +2439,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.9738244468092152</v>
+        <v>0.9738244468094619</v>
       </c>
       <c r="C118" t="n">
-        <v>10.91668024811133</v>
+        <v>10.91668027198832</v>
       </c>
       <c r="D118" t="n">
         <v>20</v>
@@ -2456,10 +2456,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.9494384212791926</v>
+        <v>0.9494384213221916</v>
       </c>
       <c r="C119" t="n">
-        <v>21.94967065821787</v>
+        <v>21.94967066446257</v>
       </c>
       <c r="D119" t="n">
         <v>33</v>
@@ -2532,19 +2532,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.35308178009075</v>
+        <v>-12.3530817786867</v>
       </c>
       <c r="D2" t="n">
-        <v>-13.04111222781229</v>
+        <v>-13.04111222891831</v>
       </c>
       <c r="E2" t="n">
-        <v>0.18999414398004</v>
+        <v>0.1899941439783202</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09760868371795617</v>
+        <v>0.09760868371521525</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.034830043586563</v>
+        <v>-2.03483004359777</v>
       </c>
     </row>
     <row r="3">
@@ -2555,19 +2555,19 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>-38.64691821990891</v>
+        <v>-38.64691821926004</v>
       </c>
       <c r="D3" t="n">
-        <v>-17.06297039670765</v>
+        <v>-17.06297040094348</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4468354327500074</v>
+        <v>0.4468354327618244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2500911543692013</v>
+        <v>0.2500911543817992</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1780078695871232</v>
+        <v>-0.1780078695473151</v>
       </c>
     </row>
     <row r="4">
@@ -2578,19 +2578,19 @@
         <v>4</v>
       </c>
       <c r="C4" t="n">
-        <v>-103.2285441091277</v>
+        <v>-103.2285441101861</v>
       </c>
       <c r="D4" t="n">
-        <v>-26.79193091942659</v>
+        <v>-26.79193092112516</v>
       </c>
       <c r="E4" t="n">
-        <v>1.079418179890059</v>
+        <v>1.079418179904747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2008856461635844</v>
+        <v>0.2008856461698656</v>
       </c>
       <c r="G4" t="n">
-        <v>0.7008361796067426</v>
+        <v>0.7008361796305991</v>
       </c>
     </row>
     <row r="5">
@@ -2601,19 +2601,19 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>-68.1098841539232</v>
+        <v>-68.10988415281713</v>
       </c>
       <c r="D5" t="n">
-        <v>-14.48905076501691</v>
+        <v>-14.48905076393744</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7268567025621625</v>
+        <v>0.726856702547189</v>
       </c>
       <c r="F5" t="n">
-        <v>1.238453247756709</v>
+        <v>1.238453247705991</v>
       </c>
       <c r="G5" t="n">
-        <v>2.794545756773875</v>
+        <v>2.794545756541568</v>
       </c>
     </row>
     <row r="6">
@@ -2624,19 +2624,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>88.46920464394749</v>
+        <v>88.4692046448139</v>
       </c>
       <c r="D6" t="n">
-        <v>4.106609265474197</v>
+        <v>4.106609265614517</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8932596909830165</v>
+        <v>0.8932596909916815</v>
       </c>
       <c r="F6" t="n">
-        <v>0.930459806813289</v>
+        <v>0.9304598068312373</v>
       </c>
       <c r="G6" t="n">
-        <v>2.807610418169325</v>
+        <v>2.807610418251614</v>
       </c>
     </row>
     <row r="7">
@@ -2647,19 +2647,19 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>35.53874483713427</v>
+        <v>35.53874483801759</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.771247821845055</v>
+        <v>-4.77124782205918</v>
       </c>
       <c r="E7" t="n">
-        <v>0.3658565043639406</v>
+        <v>0.3658565043731637</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06009794434658033</v>
+        <v>0.06009794434968541</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.266349889086154</v>
+        <v>-0.2663498890717513</v>
       </c>
     </row>
     <row r="8">
@@ -2670,19 +2670,19 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>-440.6350124601641</v>
+        <v>-440.635012451231</v>
       </c>
       <c r="D8" t="n">
-        <v>-89.73362536482811</v>
+        <v>-89.7336254260799</v>
       </c>
       <c r="E8" t="n">
-        <v>4.475087324056176</v>
+        <v>4.4750873240907</v>
       </c>
       <c r="F8" t="n">
-        <v>4.619637389746003</v>
+        <v>4.619637389646471</v>
       </c>
       <c r="G8" t="n">
-        <v>-65.30471915469295</v>
+        <v>-65.30471915806349</v>
       </c>
     </row>
     <row r="9">
@@ -2693,19 +2693,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="n">
-        <v>-445.2546498499094</v>
+        <v>-445.2546498297805</v>
       </c>
       <c r="D9" t="n">
-        <v>-24.42890621013266</v>
+        <v>-24.4289061602586</v>
       </c>
       <c r="E9" t="n">
-        <v>4.356763133650763</v>
+        <v>4.356763133516774</v>
       </c>
       <c r="F9" t="n">
-        <v>4.745350150090985</v>
+        <v>4.745350149611227</v>
       </c>
       <c r="G9" t="n">
-        <v>-75.47105780126951</v>
+        <v>-75.47105780950319</v>
       </c>
     </row>
     <row r="10">
@@ -2716,19 +2716,19 @@
         <v>10</v>
       </c>
       <c r="C10" t="n">
-        <v>64.22854410912738</v>
+        <v>64.22854411019226</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.217418207593844</v>
+        <v>-0.2174182082009553</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6500770439480088</v>
+        <v>0.6500770439588075</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8657375597239465</v>
+        <v>0.8657375597524819</v>
       </c>
       <c r="G10" t="n">
-        <v>1.131255418848013</v>
+        <v>1.131255418941557</v>
       </c>
     </row>
     <row r="11">
@@ -2739,19 +2739,19 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>77.22330281995141</v>
+        <v>77.22330282118594</v>
       </c>
       <c r="D11" t="n">
-        <v>2.966249926490188</v>
+        <v>2.966249926080758</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7794722684347617</v>
+        <v>0.7794722684468056</v>
       </c>
       <c r="F11" t="n">
-        <v>1.208766718787174</v>
+        <v>1.208766718824663</v>
       </c>
       <c r="G11" t="n">
-        <v>2.345249982217662</v>
+        <v>2.345249982343283</v>
       </c>
     </row>
     <row r="12">
@@ -2762,19 +2762,19 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>34.29293060558993</v>
+        <v>34.29293060616912</v>
       </c>
       <c r="D12" t="n">
-        <v>-35.13614875701732</v>
+        <v>-35.13614875602082</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5034402833272741</v>
+        <v>0.5034402833239902</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1467571668911489</v>
+        <v>0.1467571668893513</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.00613999684301092</v>
+        <v>-0.006139996849299223</v>
       </c>
     </row>
     <row r="13">
@@ -2785,19 +2785,19 @@
         <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>-32.45069046380893</v>
+        <v>-32.45069046193719</v>
       </c>
       <c r="D13" t="n">
-        <v>-20.00628218422577</v>
+        <v>-20.00628218375116</v>
       </c>
       <c r="E13" t="n">
-        <v>0.3964125199761231</v>
+        <v>0.3964125199566824</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2822373243940035</v>
+        <v>0.2822373243658944</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5823083578230879</v>
+        <v>-0.5823083579166131</v>
       </c>
     </row>
     <row r="14">
@@ -2808,19 +2808,19 @@
         <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>-9.787125220355222</v>
+        <v>-9.787125218937112</v>
       </c>
       <c r="D14" t="n">
-        <v>-12.39591176210429</v>
+        <v>-12.39591176150272</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1648603983211504</v>
+        <v>0.1648603983067461</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1064376118678609</v>
+        <v>0.1064376118465589</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.538691332301656</v>
+        <v>-3.538691332379223</v>
       </c>
     </row>
     <row r="15">
@@ -2831,19 +2831,19 @@
         <v>11</v>
       </c>
       <c r="C15" t="n">
-        <v>16.47864689278698</v>
+        <v>16.47864689367347</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.504897932758989</v>
+        <v>-6.504897932963074</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1808806853558039</v>
+        <v>0.180880685364987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02716756871147652</v>
+        <v>0.02716756871423343</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7488685795474845</v>
+        <v>-0.7488685795365022</v>
       </c>
     </row>
     <row r="16">
@@ -2854,19 +2854,19 @@
         <v>12</v>
       </c>
       <c r="C16" t="n">
-        <v>35.08441204497792</v>
+        <v>35.08441204752225</v>
       </c>
       <c r="D16" t="n">
-        <v>11.40847507484699</v>
+        <v>11.40847507282747</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3842134719613686</v>
+        <v>0.3842134719783735</v>
       </c>
       <c r="F16" t="n">
-        <v>0.3170274917085152</v>
+        <v>0.3170274917379388</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.7481518643203184</v>
+        <v>-0.7481518642264735</v>
       </c>
     </row>
     <row r="17">
@@ -2877,19 +2877,19 @@
         <v>13</v>
       </c>
       <c r="C17" t="n">
-        <v>18.31354826991572</v>
+        <v>18.31354827290756</v>
       </c>
       <c r="D17" t="n">
-        <v>2.623221774471285</v>
+        <v>2.623221772869036</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1920548644867484</v>
+        <v>0.1920548645125901</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07627954557482042</v>
+        <v>0.07627954559632855</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.517541067194431</v>
+        <v>-1.51754106712446</v>
       </c>
     </row>
     <row r="18">
@@ -2900,19 +2900,19 @@
         <v>14</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7673845532694998</v>
+        <v>0.7673845559743465</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.843373060832872</v>
+        <v>-3.843373061174725</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04088416647406742</v>
+        <v>0.0408841664830378</v>
       </c>
       <c r="F18" t="n">
-        <v>0.001117049075359478</v>
+        <v>0.001117049079120469</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.883577397815286</v>
+        <v>-5.88357739781028</v>
       </c>
     </row>
     <row r="19">
@@ -2923,19 +2923,19 @@
         <v>14</v>
       </c>
       <c r="C19" t="n">
-        <v>4.237268724340931</v>
+        <v>4.237268727605684</v>
       </c>
       <c r="D19" t="n">
-        <v>3.140762841665581</v>
+        <v>3.140762840953331</v>
       </c>
       <c r="E19" t="n">
-        <v>0.09258027680976418</v>
+        <v>0.09258027681891667</v>
       </c>
       <c r="F19" t="n">
-        <v>0.03011677988077466</v>
+        <v>0.03011677989285921</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.69125975477554</v>
+        <v>-4.691259754738246</v>
       </c>
     </row>
     <row r="20">
@@ -2946,19 +2946,19 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>7.505063934352505</v>
+        <v>7.505063936417139</v>
       </c>
       <c r="D20" t="n">
-        <v>4.304171537964997</v>
+        <v>4.304171531407626</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1005613539744591</v>
+        <v>0.1005613539470857</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01838140004066791</v>
+        <v>0.01838140003215827</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.012212464155108</v>
+        <v>-2.012212464199068</v>
       </c>
     </row>
     <row r="21">
@@ -2969,19 +2969,19 @@
         <v>16</v>
       </c>
       <c r="C21" t="n">
-        <v>-103.8674291271156</v>
+        <v>-103.8674291307629</v>
       </c>
       <c r="D21" t="n">
-        <v>-24.26305748034811</v>
+        <v>-24.2630575081329</v>
       </c>
       <c r="E21" t="n">
-        <v>1.110732806182496</v>
+        <v>1.110732806285296</v>
       </c>
       <c r="F21" t="n">
-        <v>1.582504582252326</v>
+        <v>1.5825045825313</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9520080175008871</v>
+        <v>0.9520080183679873</v>
       </c>
     </row>
     <row r="22">
@@ -2992,19 +2992,19 @@
         <v>16</v>
       </c>
       <c r="C22" t="n">
-        <v>-17.51331746568808</v>
+        <v>-17.51331746234268</v>
       </c>
       <c r="D22" t="n">
-        <v>-3.683615997880289</v>
+        <v>-3.683616003197526</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1837315120653204</v>
+        <v>0.1837315120419945</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1448009408709083</v>
+        <v>0.144800940821515</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.988310167781693</v>
+        <v>-3.988310168060735</v>
       </c>
     </row>
     <row r="23">
@@ -3015,19 +3015,19 @@
         <v>17</v>
       </c>
       <c r="C23" t="n">
-        <v>80.27194762712193</v>
+        <v>80.27194763053504</v>
       </c>
       <c r="D23" t="n">
-        <v>24.76114201070031</v>
+        <v>24.76114203572908</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8563714439147305</v>
+        <v>0.8563714440150564</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8805692148699507</v>
+        <v>0.880569215073379</v>
       </c>
       <c r="G23" t="n">
-        <v>2.358278450656801</v>
+        <v>2.358278451474941</v>
       </c>
     </row>
     <row r="24">
@@ -3038,19 +3038,19 @@
         <v>18</v>
       </c>
       <c r="C24" t="n">
-        <v>19.39137841225195</v>
+        <v>19.39137841568141</v>
       </c>
       <c r="D24" t="n">
-        <v>16.83079686970131</v>
+        <v>16.83079686895223</v>
       </c>
       <c r="E24" t="n">
-        <v>0.2739712329307284</v>
+        <v>0.2739712329515974</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08011241057763741</v>
+        <v>0.08011241059031704</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.7160579821528898</v>
+        <v>-0.7160579820970767</v>
       </c>
     </row>
     <row r="25">
@@ -3061,19 +3061,19 @@
         <v>19</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.64810432279029</v>
+        <v>-10.64810432183225</v>
       </c>
       <c r="D25" t="n">
-        <v>5.1757009419092</v>
+        <v>5.175700920267005</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1392025116706434</v>
+        <v>0.1392025115270361</v>
       </c>
       <c r="F25" t="n">
-        <v>0.04257303285908343</v>
+        <v>0.04257303277629099</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.545666165659322</v>
+        <v>-2.545666166117768</v>
       </c>
     </row>
     <row r="26">
@@ -3084,19 +3084,19 @@
         <v>18</v>
       </c>
       <c r="C26" t="n">
-        <v>11.51783895139329</v>
+        <v>11.51783895727993</v>
       </c>
       <c r="D26" t="n">
-        <v>15.72145976930114</v>
+        <v>15.72145976752765</v>
       </c>
       <c r="E26" t="n">
-        <v>0.2109705959257257</v>
+        <v>0.2109705959453692</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05037614129867229</v>
+        <v>0.05037614130858259</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.7771020560698236</v>
+        <v>-0.7771020560369539</v>
       </c>
     </row>
     <row r="27">
@@ -3107,19 +3107,19 @@
         <v>20</v>
       </c>
       <c r="C27" t="n">
-        <v>-28.69067735564946</v>
+        <v>-28.69067733672109</v>
       </c>
       <c r="D27" t="n">
-        <v>4.721367107568592</v>
+        <v>4.721367097783893</v>
       </c>
       <c r="E27" t="n">
-        <v>0.3107140895033061</v>
+        <v>0.3107140892772798</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1710189796893964</v>
+        <v>0.1710189794408628</v>
       </c>
       <c r="G27" t="n">
-        <v>-1.186158439428023</v>
+        <v>-1.186158440697774</v>
       </c>
     </row>
     <row r="28">
@@ -3130,19 +3130,19 @@
         <v>21</v>
       </c>
       <c r="C28" t="n">
-        <v>-42.86169633533843</v>
+        <v>-42.86169631861949</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.09247445300294</v>
+        <v>-2.09247445341344</v>
       </c>
       <c r="E28" t="n">
-        <v>0.45259867691328</v>
+        <v>0.4525986767229929</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4188216914715852</v>
+        <v>0.4188216911186871</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.3393231138628519</v>
+        <v>-0.3393231156349146</v>
       </c>
     </row>
     <row r="29">
@@ -3153,19 +3153,19 @@
         <v>22</v>
       </c>
       <c r="C29" t="n">
-        <v>-53.28051802681026</v>
+        <v>-53.28051801894773</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.753151339139916</v>
+        <v>-6.753151332765213</v>
       </c>
       <c r="E29" t="n">
-        <v>0.5598411052160602</v>
+        <v>0.5598411051114113</v>
       </c>
       <c r="F29" t="n">
-        <v>1.042552232471927</v>
+        <v>1.042552232088035</v>
       </c>
       <c r="G29" t="n">
-        <v>0.9323567993697468</v>
+        <v>0.9323567974405256</v>
       </c>
     </row>
     <row r="30">
@@ -3176,19 +3176,19 @@
         <v>23</v>
       </c>
       <c r="C30" t="n">
-        <v>8.140597724286806</v>
+        <v>8.140597798967844</v>
       </c>
       <c r="D30" t="n">
-        <v>10.45341350931632</v>
+        <v>10.45341351077301</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1761040547819682</v>
+        <v>0.1761040551457511</v>
       </c>
       <c r="F30" t="n">
-        <v>0.03158755295815219</v>
+        <v>0.03158755312700379</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.822547848884536</v>
+        <v>-4.822547848322177</v>
       </c>
     </row>
     <row r="31">
@@ -3199,19 +3199,19 @@
         <v>24</v>
       </c>
       <c r="C31" t="n">
-        <v>-162.4940686560782</v>
+        <v>-162.4940686881817</v>
       </c>
       <c r="D31" t="n">
-        <v>-26.18352419178764</v>
+        <v>-26.18352416861665</v>
       </c>
       <c r="E31" t="n">
-        <v>1.663412406166904</v>
+        <v>1.663412406432216</v>
       </c>
       <c r="F31" t="n">
-        <v>4.198147820150069</v>
+        <v>4.198147821530966</v>
       </c>
       <c r="G31" t="n">
-        <v>12.45076498517292</v>
+        <v>12.45076499216177</v>
       </c>
     </row>
     <row r="32">
@@ -3222,19 +3222,19 @@
         <v>26</v>
       </c>
       <c r="C32" t="n">
-        <v>143.5290706902057</v>
+        <v>143.5290706813775</v>
       </c>
       <c r="D32" t="n">
-        <v>30.05660712783203</v>
+        <v>30.05660712759544</v>
       </c>
       <c r="E32" t="n">
-        <v>1.439768157810947</v>
+        <v>1.439768157731107</v>
       </c>
       <c r="F32" t="n">
-        <v>6.398389252680005</v>
+        <v>6.398389251943684</v>
       </c>
       <c r="G32" t="n">
-        <v>14.80817342021551</v>
+        <v>14.80817341644083</v>
       </c>
     </row>
     <row r="33">
@@ -3245,19 +3245,19 @@
         <v>27</v>
       </c>
       <c r="C33" t="n">
-        <v>32.88334376243408</v>
+        <v>32.88334375757477</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5934816221665857</v>
+        <v>-0.5934816265201724</v>
       </c>
       <c r="E33" t="n">
-        <v>0.3431911984714578</v>
+        <v>0.3431911984215794</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2207936300632625</v>
+        <v>0.2207936299972744</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.023748718461284</v>
+        <v>-1.023748718765891</v>
       </c>
     </row>
     <row r="34">
@@ -3268,19 +3268,19 @@
         <v>28</v>
       </c>
       <c r="C34" t="n">
-        <v>15.66255013237064</v>
+        <v>15.66255012641766</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.569732903705565</v>
+        <v>-6.569732901478948</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1784186573687937</v>
+        <v>0.1784186573012074</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07054796611801706</v>
+        <v>0.07054796606331415</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.923651372986808</v>
+        <v>-1.923651373224343</v>
       </c>
     </row>
     <row r="35">
@@ -3291,19 +3291,19 @@
         <v>29</v>
       </c>
       <c r="C35" t="n">
-        <v>74.16473783929364</v>
+        <v>74.16473786457439</v>
       </c>
       <c r="D35" t="n">
-        <v>28.14559040373975</v>
+        <v>28.14559030117951</v>
       </c>
       <c r="E35" t="n">
-        <v>1.08182793799164</v>
+        <v>1.081827937413778</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3549330636447792</v>
+        <v>0.3549330633330072</v>
       </c>
       <c r="G35" t="n">
-        <v>-47.27789983930286</v>
+        <v>-47.27789984550299</v>
       </c>
     </row>
     <row r="36">
@@ -3314,19 +3314,19 @@
         <v>29</v>
       </c>
       <c r="C36" t="n">
-        <v>223.7787128335667</v>
+        <v>223.778712807488</v>
       </c>
       <c r="D36" t="n">
-        <v>-11.45288544656474</v>
+        <v>-11.45288550866426</v>
       </c>
       <c r="E36" t="n">
-        <v>2.284179876926269</v>
+        <v>2.284179876483969</v>
       </c>
       <c r="F36" t="n">
-        <v>3.980506153382521</v>
+        <v>3.980506152136911</v>
       </c>
       <c r="G36" t="n">
-        <v>-48.00616150277897</v>
+        <v>-48.00616152069436</v>
       </c>
     </row>
     <row r="37">
@@ -3337,19 +3337,19 @@
         <v>30</v>
       </c>
       <c r="C37" t="n">
-        <v>14.74091625214699</v>
+        <v>14.74091626011334</v>
       </c>
       <c r="D37" t="n">
-        <v>11.52837147692441</v>
+        <v>11.52837148301131</v>
       </c>
       <c r="E37" t="n">
-        <v>0.2163333853791571</v>
+        <v>0.2163333854772962</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1913079215719904</v>
+        <v>0.1913079217588116</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.210119057782922</v>
+        <v>-3.210119057218078</v>
       </c>
     </row>
     <row r="38">
@@ -3360,19 +3360,19 @@
         <v>30</v>
       </c>
       <c r="C38" t="n">
-        <v>-8.407997833747736</v>
+        <v>-8.407997833684473</v>
       </c>
       <c r="D38" t="n">
-        <v>-8.646081530718821</v>
+        <v>-8.64608151956927</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1264726211737082</v>
+        <v>0.126472621088917</v>
       </c>
       <c r="F38" t="n">
-        <v>0.01617340066531447</v>
+        <v>0.01617340064378503</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.7235246068718757</v>
+        <v>-0.7235246069415009</v>
       </c>
     </row>
     <row r="39">
@@ -3383,19 +3383,19 @@
         <v>31</v>
       </c>
       <c r="C39" t="n">
-        <v>93.03040067250981</v>
+        <v>93.0304006424209</v>
       </c>
       <c r="D39" t="n">
-        <v>5.044602543961709</v>
+        <v>5.04460255795575</v>
       </c>
       <c r="E39" t="n">
-        <v>0.9488448613202114</v>
+        <v>0.9488448610382737</v>
       </c>
       <c r="F39" t="n">
-        <v>2.784177532468078</v>
+        <v>2.784177530729835</v>
       </c>
       <c r="G39" t="n">
-        <v>-1.171094324595519</v>
+        <v>-1.171094331043239</v>
       </c>
     </row>
     <row r="40">
@@ -3406,19 +3406,19 @@
         <v>31</v>
       </c>
       <c r="C40" t="n">
-        <v>-29.87456290383807</v>
+        <v>-29.87456289446578</v>
       </c>
       <c r="D40" t="n">
-        <v>12.40248356651861</v>
+        <v>12.40248356331094</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3476032241102248</v>
+        <v>0.3476032240077338</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3431606561314204</v>
+        <v>0.3431606559251676</v>
       </c>
       <c r="G40" t="n">
-        <v>-1.203112151444641</v>
+        <v>-1.203112152126179</v>
       </c>
     </row>
     <row r="41">
@@ -3429,19 +3429,19 @@
         <v>31</v>
       </c>
       <c r="C41" t="n">
-        <v>12.524813100808</v>
+        <v>12.52481309987558</v>
       </c>
       <c r="D41" t="n">
-        <v>1.764911562467302</v>
+        <v>1.764911562739597</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1358009869160131</v>
+        <v>0.1358009869074417</v>
       </c>
       <c r="F41" t="n">
-        <v>0.04007647841465989</v>
+        <v>0.04007647840924378</v>
       </c>
       <c r="G41" t="n">
-        <v>-1.663280584751214</v>
+        <v>-1.663280584768742</v>
       </c>
     </row>
     <row r="42">
@@ -3452,19 +3452,19 @@
         <v>32</v>
       </c>
       <c r="C42" t="n">
-        <v>7.323009624377007</v>
+        <v>7.32300963266227</v>
       </c>
       <c r="D42" t="n">
-        <v>-4.423555443620272</v>
+        <v>-4.423555461281413</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0890905704489624</v>
+        <v>0.08909057061790444</v>
       </c>
       <c r="F42" t="n">
-        <v>0.02510380789360234</v>
+        <v>0.02510380798429956</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.925948948639586</v>
+        <v>-2.925948948403535</v>
       </c>
     </row>
     <row r="43">
@@ -3475,19 +3475,19 @@
         <v>33</v>
       </c>
       <c r="C43" t="n">
-        <v>-3.573166865440633</v>
+        <v>-3.573166853657493</v>
       </c>
       <c r="D43" t="n">
-        <v>-10.40276861989156</v>
+        <v>-10.40276862352261</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1154930117416685</v>
+        <v>0.1154930117375349</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05581914393794696</v>
+        <v>0.05581914391361309</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.800749864991169</v>
+        <v>-5.80074986507096</v>
       </c>
     </row>
     <row r="44">
@@ -3498,19 +3498,19 @@
         <v>35</v>
       </c>
       <c r="C44" t="n">
-        <v>0.836486186879653</v>
+        <v>0.8364861848857529</v>
       </c>
       <c r="D44" t="n">
-        <v>4.037695042685796</v>
+        <v>4.037695087580135</v>
       </c>
       <c r="E44" t="n">
-        <v>0.04508280969669887</v>
+        <v>0.04508281014657626</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0004208239256083823</v>
+        <v>0.0004208239346208398</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.2555898379825177</v>
+        <v>-0.2555898379452346</v>
       </c>
     </row>
     <row r="45">
@@ -3521,19 +3521,19 @@
         <v>36</v>
       </c>
       <c r="C45" t="n">
-        <v>-33.83648618687963</v>
+        <v>-33.83648618273957</v>
       </c>
       <c r="D45" t="n">
-        <v>-13.03769504268561</v>
+        <v>-13.03769508694446</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3735793061458313</v>
+        <v>0.3735793062682134</v>
       </c>
       <c r="F45" t="n">
-        <v>0.148618363126495</v>
+        <v>0.1486183632186382</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.6087534323888679</v>
+        <v>-0.6087534320130086</v>
       </c>
     </row>
     <row r="46">
@@ -3544,19 +3544,19 @@
         <v>36</v>
       </c>
       <c r="C46" t="n">
-        <v>-15.70209418351598</v>
+        <v>-15.70209416811877</v>
       </c>
       <c r="D46" t="n">
-        <v>-10.49760649498003</v>
+        <v>-10.49760650485343</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1964989638362872</v>
+        <v>0.1964989637562454</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1424157512379178</v>
+        <v>0.142415751095065</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.033846116512776</v>
+        <v>-3.033846117167204</v>
       </c>
     </row>
     <row r="47">
@@ -3567,19 +3567,19 @@
         <v>35</v>
       </c>
       <c r="C47" t="n">
-        <v>30.24846297718701</v>
+        <v>30.24846297879658</v>
       </c>
       <c r="D47" t="n">
-        <v>4.694760701814625</v>
+        <v>4.694760701306536</v>
       </c>
       <c r="E47" t="n">
-        <v>0.3151170624088538</v>
+        <v>0.3151170624242431</v>
       </c>
       <c r="F47" t="n">
-        <v>0.08452834014116206</v>
+        <v>0.0845283401492587</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.2876511035650813</v>
+        <v>-0.2876511035393818</v>
       </c>
     </row>
     <row r="48">
@@ -3590,19 +3590,19 @@
         <v>36</v>
       </c>
       <c r="C48" t="n">
-        <v>-94.28614440627473</v>
+        <v>-94.28614438807537</v>
       </c>
       <c r="D48" t="n">
-        <v>-44.20925324574463</v>
+        <v>-44.20925352809304</v>
       </c>
       <c r="E48" t="n">
-        <v>1.068983917809892</v>
+        <v>1.0689839188712</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2856088587108445</v>
+        <v>0.2856088592735802</v>
       </c>
       <c r="G48" t="n">
-        <v>0.08948380421850288</v>
+        <v>0.08948380625746921</v>
       </c>
     </row>
     <row r="49">
@@ -3613,19 +3613,19 @@
         <v>38</v>
       </c>
       <c r="C49" t="n">
-        <v>54.90767249741748</v>
+        <v>54.90767252340295</v>
       </c>
       <c r="D49" t="n">
-        <v>2.980150889493046</v>
+        <v>2.98015089804472</v>
       </c>
       <c r="E49" t="n">
-        <v>0.5619769928256995</v>
+        <v>0.5619769930829325</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9921600501999492</v>
+        <v>0.9921600511047188</v>
       </c>
       <c r="G49" t="n">
-        <v>0.6812729497468899</v>
+        <v>0.6812729526355459</v>
       </c>
     </row>
     <row r="50">
@@ -3636,19 +3636,19 @@
         <v>39</v>
       </c>
       <c r="C50" t="n">
-        <v>44.01981207529374</v>
+        <v>44.0198121005696</v>
       </c>
       <c r="D50" t="n">
-        <v>-3.674346282458821</v>
+        <v>-3.674346273892417</v>
       </c>
       <c r="E50" t="n">
-        <v>0.4503966828554138</v>
+        <v>0.450396683092959</v>
       </c>
       <c r="F50" t="n">
-        <v>1.172419654055943</v>
+        <v>1.172419655321093</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.7153271854923475</v>
+        <v>-0.7153271820181804</v>
       </c>
     </row>
     <row r="51">
@@ -3659,19 +3659,19 @@
         <v>37</v>
       </c>
       <c r="C51" t="n">
-        <v>62.45491537043449</v>
+        <v>62.45491550439395</v>
       </c>
       <c r="D51" t="n">
-        <v>19.00899471962008</v>
+        <v>19.00899454517621</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8790857028149515</v>
+        <v>0.879085702549515</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2609635709562639</v>
+        <v>0.2609635710785767</v>
       </c>
       <c r="G51" t="n">
-        <v>-36.94661748607778</v>
+        <v>-36.94661749252756</v>
       </c>
     </row>
     <row r="52">
@@ -3682,19 +3682,19 @@
         <v>39</v>
       </c>
       <c r="C52" t="n">
-        <v>26.91551244721765</v>
+        <v>26.91551247131421</v>
       </c>
       <c r="D52" t="n">
-        <v>-8.701122060253851</v>
+        <v>-8.701122049972374</v>
       </c>
       <c r="E52" t="n">
-        <v>0.2945759284932403</v>
+        <v>0.2945759286958117</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1541080880403847</v>
+        <v>0.1541080882583223</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.9535045294852713</v>
+        <v>-0.9535045287841033</v>
       </c>
     </row>
     <row r="53">
@@ -3705,19 +3705,19 @@
         <v>40</v>
       </c>
       <c r="C53" t="n">
-        <v>15.44626973898561</v>
+        <v>15.44626976321072</v>
       </c>
       <c r="D53" t="n">
-        <v>1.1929872237347</v>
+        <v>1.19298720586482</v>
       </c>
       <c r="E53" t="n">
-        <v>0.1626393032522567</v>
+        <v>0.1626393034736973</v>
       </c>
       <c r="F53" t="n">
-        <v>0.03724979547696172</v>
+        <v>0.03724979558255725</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.020923380150992</v>
+        <v>-1.020923379803071</v>
       </c>
     </row>
     <row r="54">
@@ -3728,19 +3728,19 @@
         <v>41</v>
       </c>
       <c r="C54" t="n">
-        <v>-11.83747295857039</v>
+        <v>-11.837472931051</v>
       </c>
       <c r="D54" t="n">
-        <v>-6.446517525793503</v>
+        <v>-6.446517534750565</v>
       </c>
       <c r="E54" t="n">
-        <v>0.1403623532461272</v>
+        <v>0.1403623530390655</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0933302241167091</v>
+        <v>0.09333022377743383</v>
       </c>
       <c r="G54" t="n">
-        <v>-4.145183754263607</v>
+        <v>-4.145183755382595</v>
       </c>
     </row>
     <row r="55">
@@ -3751,19 +3751,19 @@
         <v>41</v>
       </c>
       <c r="C55" t="n">
-        <v>-21.59098005649135</v>
+        <v>-21.59098002824043</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.786089396114446</v>
+        <v>-7.786089401710922</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2397915266381074</v>
+        <v>0.2397915263789363</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2212107966642058</v>
+        <v>0.2212107961568321</v>
       </c>
       <c r="G55" t="n">
-        <v>-2.548205783568436</v>
+        <v>-2.548205785257169</v>
       </c>
     </row>
     <row r="56">
@@ -3774,19 +3774,19 @@
         <v>43</v>
       </c>
       <c r="C56" t="n">
-        <v>-16.59792993592299</v>
+        <v>-16.59792989347386</v>
       </c>
       <c r="D56" t="n">
-        <v>-1.328736884686292</v>
+        <v>-1.328736899717351</v>
       </c>
       <c r="E56" t="n">
-        <v>0.1764699175556876</v>
+        <v>0.1764699170857484</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1770000742720299</v>
+        <v>0.1770000733228692</v>
       </c>
       <c r="G56" t="n">
-        <v>-5.12264458654095</v>
+        <v>-5.122644591140056</v>
       </c>
     </row>
     <row r="57">
@@ -3797,19 +3797,19 @@
         <v>42</v>
       </c>
       <c r="C57" t="n">
-        <v>1.408695419712322</v>
+        <v>1.408695436560014</v>
       </c>
       <c r="D57" t="n">
-        <v>1.634885112725066</v>
+        <v>1.634885072238633</v>
       </c>
       <c r="E57" t="n">
-        <v>0.06039185495466371</v>
+        <v>0.06039185459353204</v>
       </c>
       <c r="F57" t="n">
-        <v>0.006625355635339281</v>
+        <v>0.006625355528410148</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.036378002587343</v>
+        <v>-4.03637800327905</v>
       </c>
     </row>
     <row r="58">
@@ -3820,19 +3820,19 @@
         <v>44</v>
       </c>
       <c r="C58" t="n">
-        <v>-32.77493001019479</v>
+        <v>-32.77492996712009</v>
       </c>
       <c r="D58" t="n">
-        <v>5.485043683611876</v>
+        <v>5.485043702042409</v>
       </c>
       <c r="E58" t="n">
-        <v>0.3450037674587868</v>
+        <v>0.3450037670490421</v>
       </c>
       <c r="F58" t="n">
-        <v>0.258267119194791</v>
+        <v>0.2582671185635306</v>
       </c>
       <c r="G58" t="n">
-        <v>-1.136278595694088</v>
+        <v>-1.136278598466916</v>
       </c>
     </row>
     <row r="59">
@@ -3843,19 +3843,19 @@
         <v>45</v>
       </c>
       <c r="C59" t="n">
-        <v>-36.34236173317964</v>
+        <v>-36.34236171865226</v>
       </c>
       <c r="D59" t="n">
-        <v>-3.561784588388332</v>
+        <v>-3.561784565507357</v>
       </c>
       <c r="E59" t="n">
-        <v>0.3739455303020695</v>
+        <v>0.3739455301164395</v>
       </c>
       <c r="F59" t="n">
-        <v>0.5445525270613985</v>
+        <v>0.5445525265476263</v>
       </c>
       <c r="G59" t="n">
-        <v>-1.445706520517344</v>
+        <v>-1.445706522386227</v>
       </c>
     </row>
     <row r="60">
@@ -3866,19 +3866,19 @@
         <v>46</v>
       </c>
       <c r="C60" t="n">
-        <v>-31.14216690892948</v>
+        <v>-31.1421668966013</v>
       </c>
       <c r="D60" t="n">
-        <v>-1.198644741522424</v>
+        <v>-1.198644763771088</v>
       </c>
       <c r="E60" t="n">
-        <v>0.3132340917411759</v>
+        <v>0.3132340916259604</v>
       </c>
       <c r="F60" t="n">
-        <v>0.3649385737132498</v>
+        <v>0.3649385734176569</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.010483849235196</v>
+        <v>-2.010483850295256</v>
       </c>
     </row>
     <row r="61">
@@ -3889,19 +3889,19 @@
         <v>47</v>
       </c>
       <c r="C61" t="n">
-        <v>-14.74474735108035</v>
+        <v>-14.7447473459784</v>
       </c>
       <c r="D61" t="n">
-        <v>-5.836658366897626</v>
+        <v>-5.836658368827712</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1593842571701229</v>
+        <v>0.159384257129584</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1364597888409449</v>
+        <v>0.1364597887593533</v>
       </c>
       <c r="G61" t="n">
-        <v>-4.412922777907322</v>
+        <v>-4.412922778165366</v>
       </c>
     </row>
     <row r="62">
@@ -3912,19 +3912,19 @@
         <v>48</v>
       </c>
       <c r="C62" t="n">
-        <v>-9.405423627030361</v>
+        <v>-9.405423633974765</v>
       </c>
       <c r="D62" t="n">
-        <v>-10.89512263035231</v>
+        <v>-10.89512259186176</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1429504020727371</v>
+        <v>0.1429504018252731</v>
       </c>
       <c r="F62" t="n">
-        <v>0.03504299561856783</v>
+        <v>0.03504299549780576</v>
       </c>
       <c r="G62" t="n">
-        <v>-1.557497962157651</v>
+        <v>-1.557497962589267</v>
       </c>
     </row>
     <row r="63">
@@ -3935,19 +3935,19 @@
         <v>48</v>
       </c>
       <c r="C63" t="n">
-        <v>-64.8714970179213</v>
+        <v>-64.87149698164754</v>
       </c>
       <c r="D63" t="n">
-        <v>5.245420140419565</v>
+        <v>5.245420123619835</v>
       </c>
       <c r="E63" t="n">
-        <v>0.6705015471269861</v>
+        <v>0.6705015467330548</v>
       </c>
       <c r="F63" t="n">
-        <v>3.166640516839948</v>
+        <v>3.166640513138489</v>
       </c>
       <c r="G63" t="n">
-        <v>5.615588173976128</v>
+        <v>5.615588157255003</v>
       </c>
     </row>
     <row r="64">
@@ -3958,19 +3958,19 @@
         <v>48</v>
       </c>
       <c r="C64" t="n">
-        <v>-64.8714970179213</v>
+        <v>-64.87149698164754</v>
       </c>
       <c r="D64" t="n">
-        <v>5.245420140419565</v>
+        <v>5.245420123619835</v>
       </c>
       <c r="E64" t="n">
-        <v>0.6705015471269861</v>
+        <v>0.6705015467330548</v>
       </c>
       <c r="F64" t="n">
-        <v>3.166640516839948</v>
+        <v>3.166640513138489</v>
       </c>
       <c r="G64" t="n">
-        <v>5.615588173976128</v>
+        <v>5.615588157255003</v>
       </c>
     </row>
     <row r="65">
@@ -3981,19 +3981,19 @@
         <v>48</v>
       </c>
       <c r="C65" t="n">
-        <v>-49.69083539620408</v>
+        <v>-49.69083537957793</v>
       </c>
       <c r="D65" t="n">
-        <v>-2.087386582561583</v>
+        <v>-2.087386570259505</v>
       </c>
       <c r="E65" t="n">
-        <v>0.5093057068656788</v>
+        <v>0.5093057066702367</v>
       </c>
       <c r="F65" t="n">
-        <v>1.735876442122546</v>
+        <v>1.735876440825557</v>
       </c>
       <c r="G65" t="n">
-        <v>0.2280278096264281</v>
+        <v>0.228027805929512</v>
       </c>
     </row>
     <row r="66">
@@ -4004,19 +4004,19 @@
         <v>48</v>
       </c>
       <c r="C66" t="n">
-        <v>-34.88120713991537</v>
+        <v>-34.88120713463421</v>
       </c>
       <c r="D66" t="n">
-        <v>3.201668378621347</v>
+        <v>3.201668377269535</v>
       </c>
       <c r="E66" t="n">
-        <v>0.3479790291006189</v>
+        <v>0.347979029046979</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2116282460112089</v>
+        <v>0.2116282459457892</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.7190166425343705</v>
+        <v>-0.7190166427188944</v>
       </c>
     </row>
     <row r="67">
@@ -4027,19 +4027,19 @@
         <v>49</v>
       </c>
       <c r="C67" t="n">
-        <v>53.67880033979991</v>
+        <v>53.67880034253346</v>
       </c>
       <c r="D67" t="n">
-        <v>13.42289767021158</v>
+        <v>13.42289766900382</v>
       </c>
       <c r="E67" t="n">
-        <v>0.5499140635492222</v>
+        <v>0.5499140635718197</v>
       </c>
       <c r="F67" t="n">
-        <v>0.7850174488957578</v>
+        <v>0.7850174489615682</v>
       </c>
       <c r="G67" t="n">
-        <v>0.2875220385461628</v>
+        <v>0.2875220387308932</v>
       </c>
     </row>
     <row r="68">
@@ -4050,19 +4050,19 @@
         <v>50</v>
       </c>
       <c r="C68" t="n">
-        <v>66.65012599461892</v>
+        <v>66.65012599531343</v>
       </c>
       <c r="D68" t="n">
-        <v>20.43841881754567</v>
+        <v>20.43841880097173</v>
       </c>
       <c r="E68" t="n">
-        <v>0.6965685387091023</v>
+        <v>0.6965685386602465</v>
       </c>
       <c r="F68" t="n">
-        <v>2.283597009468266</v>
+        <v>2.283597009170137</v>
       </c>
       <c r="G68" t="n">
-        <v>3.042144560705573</v>
+        <v>3.04214455979092</v>
       </c>
     </row>
     <row r="69">
@@ -4073,19 +4073,19 @@
         <v>51</v>
       </c>
       <c r="C69" t="n">
-        <v>28.56577120207795</v>
+        <v>28.56577119683348</v>
       </c>
       <c r="D69" t="n">
-        <v>6.243632426576689</v>
+        <v>6.243632408111139</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3085458745003142</v>
+        <v>0.3085458743910892</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1875204065595462</v>
+        <v>0.187520406430707</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.7483762615833589</v>
+        <v>-0.7483762620342089</v>
       </c>
     </row>
     <row r="70">
@@ -4096,19 +4096,19 @@
         <v>52</v>
       </c>
       <c r="C70" t="n">
-        <v>10.37825079551844</v>
+        <v>10.37825079054117</v>
       </c>
       <c r="D70" t="n">
-        <v>1.992008688160692</v>
+        <v>1.992008674978214</v>
       </c>
       <c r="E70" t="n">
-        <v>0.1246378078675758</v>
+        <v>0.1246378077516204</v>
       </c>
       <c r="F70" t="n">
-        <v>0.05420393478554431</v>
+        <v>0.05420393469145068</v>
       </c>
       <c r="G70" t="n">
-        <v>-3.454432307093418</v>
+        <v>-3.45443230783861</v>
       </c>
     </row>
     <row r="71">
@@ -4119,19 +4119,19 @@
         <v>53</v>
       </c>
       <c r="C71" t="n">
-        <v>-12.675953139267</v>
+        <v>-12.67595312577781</v>
       </c>
       <c r="D71" t="n">
-        <v>-5.553559004745716</v>
+        <v>-5.553558962016383</v>
       </c>
       <c r="E71" t="n">
-        <v>0.1477716753787135</v>
+        <v>0.1477716750543593</v>
       </c>
       <c r="F71" t="n">
-        <v>0.05232467654700734</v>
+        <v>0.0523246763348606</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.557981965844574</v>
+        <v>-2.557981967003983</v>
       </c>
     </row>
     <row r="72">
@@ -4142,19 +4142,19 @@
         <v>53</v>
       </c>
       <c r="C72" t="n">
-        <v>37.78609106278308</v>
+        <v>37.78609106564762</v>
       </c>
       <c r="D72" t="n">
-        <v>13.0669337869916</v>
+        <v>13.06693378656346</v>
       </c>
       <c r="E72" t="n">
-        <v>0.4207281899864889</v>
+        <v>0.4207281900089188</v>
       </c>
       <c r="F72" t="n">
-        <v>1.191539962498176</v>
+        <v>1.191539962638508</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.524986045726424</v>
+        <v>-2.524986045170865</v>
       </c>
     </row>
     <row r="73">
@@ -4165,19 +4165,19 @@
         <v>53</v>
       </c>
       <c r="C73" t="n">
-        <v>37.76394282045329</v>
+        <v>37.76394282324425</v>
       </c>
       <c r="D73" t="n">
-        <v>11.19421836228983</v>
+        <v>11.19421836174977</v>
       </c>
       <c r="E73" t="n">
-        <v>0.4116510793108947</v>
+        <v>0.4116510793328689</v>
       </c>
       <c r="F73" t="n">
-        <v>1.366401916588629</v>
+        <v>1.366401916749545</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.588034321320018</v>
+        <v>-2.58803432078115</v>
       </c>
     </row>
     <row r="74">
@@ -4188,19 +4188,19 @@
         <v>54</v>
       </c>
       <c r="C74" t="n">
-        <v>7.079184713014619</v>
+        <v>7.07918471519812</v>
       </c>
       <c r="D74" t="n">
-        <v>1.45547688709798</v>
+        <v>1.455476886586903</v>
       </c>
       <c r="E74" t="n">
-        <v>0.08254456790251936</v>
+        <v>0.08254456792115737</v>
       </c>
       <c r="F74" t="n">
-        <v>0.01033302698744976</v>
+        <v>0.01033302699269623</v>
       </c>
       <c r="G74" t="n">
-        <v>-1.793284774733085</v>
+        <v>-1.793284774711028</v>
       </c>
     </row>
     <row r="75">
@@ -4211,19 +4211,19 @@
         <v>55</v>
       </c>
       <c r="C75" t="n">
-        <v>18.54605645122494</v>
+        <v>18.5460564581548</v>
       </c>
       <c r="D75" t="n">
-        <v>4.341216368459693</v>
+        <v>4.341216366477541</v>
       </c>
       <c r="E75" t="n">
-        <v>0.2031821739081623</v>
+        <v>0.2031821739734562</v>
       </c>
       <c r="F75" t="n">
-        <v>0.01103021294839124</v>
+        <v>0.01103021295563167</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6285986846712905</v>
+        <v>-0.6285986846467972</v>
       </c>
     </row>
     <row r="76">
@@ -4234,19 +4234,19 @@
         <v>55</v>
       </c>
       <c r="C76" t="n">
-        <v>-21.43581305915845</v>
+        <v>-21.43581306463447</v>
       </c>
       <c r="D76" t="n">
-        <v>-5.819181842063132</v>
+        <v>-5.81918184027075</v>
       </c>
       <c r="E76" t="n">
-        <v>0.2356722706579634</v>
+        <v>0.2356722707090537</v>
       </c>
       <c r="F76" t="n">
-        <v>0.02646017826373637</v>
+        <v>0.02646017827521163</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.2577958080772662</v>
+        <v>-0.2577958080418377</v>
       </c>
     </row>
     <row r="77">
@@ -4257,19 +4257,19 @@
         <v>56</v>
       </c>
       <c r="C77" t="n">
-        <v>-23.00570784882274</v>
+        <v>-23.00570785187247</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.09562377623257</v>
+        <v>-9.095623776092923</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2619326554536645</v>
+        <v>0.2619326554831497</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2235520050433379</v>
+        <v>0.2235520050954953</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.611498714799322</v>
+        <v>-1.611498714655372</v>
       </c>
     </row>
     <row r="78">
@@ -4280,19 +4280,19 @@
         <v>56</v>
       </c>
       <c r="C78" t="n">
-        <v>35.89378289090473</v>
+        <v>35.89378289343501</v>
       </c>
       <c r="D78" t="n">
-        <v>9.13537563166615</v>
+        <v>9.135375630336801</v>
       </c>
       <c r="E78" t="n">
-        <v>0.3825281703324799</v>
+        <v>0.3825281703520615</v>
       </c>
       <c r="F78" t="n">
-        <v>0.6645230370393023</v>
+        <v>0.6645230371112234</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.348749429765402</v>
+        <v>-1.348749429566022</v>
       </c>
     </row>
     <row r="79">
@@ -4303,19 +4303,19 @@
         <v>57</v>
       </c>
       <c r="C79" t="n">
-        <v>-6.680663583302487</v>
+        <v>-6.680663591846038</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.686238593671007</v>
+        <v>-3.686238609413824</v>
       </c>
       <c r="E79" t="n">
-        <v>0.08078879253263814</v>
+        <v>0.08078879269236895</v>
       </c>
       <c r="F79" t="n">
-        <v>0.01933877027869624</v>
+        <v>0.01933877035242659</v>
       </c>
       <c r="G79" t="n">
-        <v>-2.159676469181273</v>
+        <v>-2.159676469018028</v>
       </c>
     </row>
     <row r="80">
@@ -4326,19 +4326,19 @@
         <v>57</v>
       </c>
       <c r="C80" t="n">
-        <v>18.80075778307292</v>
+        <v>18.80075778456234</v>
       </c>
       <c r="D80" t="n">
-        <v>3.152641830263943</v>
+        <v>3.1526418345541</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2026449242625738</v>
+        <v>0.2026449242842626</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1007554294921462</v>
+        <v>0.1007554295121764</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.373920294224377</v>
+        <v>-1.373920294239376</v>
       </c>
     </row>
     <row r="81">
@@ -4349,19 +4349,19 @@
         <v>58</v>
       </c>
       <c r="C81" t="n">
-        <v>-30.36142697590154</v>
+        <v>-30.36142696771801</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.512821342259711</v>
+        <v>-7.512821344679155</v>
       </c>
       <c r="E81" t="n">
-        <v>0.3308173668172024</v>
+        <v>0.3308173667393264</v>
       </c>
       <c r="F81" t="n">
-        <v>0.5210323684406752</v>
+        <v>0.5210323681794193</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.252724277664977</v>
+        <v>-3.252724278856139</v>
       </c>
     </row>
     <row r="82">
@@ -4372,19 +4372,19 @@
         <v>58</v>
       </c>
       <c r="C82" t="n">
-        <v>-27.94572340360312</v>
+        <v>-27.94572339685869</v>
       </c>
       <c r="D82" t="n">
-        <v>-4.180719177041469</v>
+        <v>-4.180719179820741</v>
       </c>
       <c r="E82" t="n">
-        <v>0.2991838056103499</v>
+        <v>0.2991838055440792</v>
       </c>
       <c r="F82" t="n">
-        <v>0.7102218964302693</v>
+        <v>0.7102218960965914</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.18877382980003</v>
+        <v>-3.188773830815206</v>
       </c>
     </row>
     <row r="83">
@@ -4395,19 +4395,19 @@
         <v>58</v>
       </c>
       <c r="C83" t="n">
-        <v>-29.29515216341336</v>
+        <v>-29.29515215636504</v>
       </c>
       <c r="D83" t="n">
-        <v>-3.914310421809911</v>
+        <v>-3.91431042476874</v>
       </c>
       <c r="E83" t="n">
-        <v>0.3129354673402016</v>
+        <v>0.3129354672703801</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7591195733669842</v>
+        <v>0.7591195730103273</v>
       </c>
       <c r="G83" t="n">
-        <v>-2.779916893266465</v>
+        <v>-2.779916894327949</v>
       </c>
     </row>
     <row r="84">
@@ -4418,19 +4418,19 @@
         <v>58</v>
       </c>
       <c r="C84" t="n">
-        <v>-34.49533525481301</v>
+        <v>-34.49533524688758</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.26784369997501</v>
+        <v>-8.267843702363651</v>
       </c>
       <c r="E84" t="n">
-        <v>0.3763721107893145</v>
+        <v>0.3763721107134466</v>
       </c>
       <c r="F84" t="n">
-        <v>0.6392496384083373</v>
+        <v>0.6392496381366541</v>
       </c>
       <c r="G84" t="n">
-        <v>-2.386488170787239</v>
+        <v>-2.386488172024279</v>
       </c>
     </row>
     <row r="85">
@@ -4441,19 +4441,19 @@
         <v>59</v>
       </c>
       <c r="C85" t="n">
-        <v>-43.30511044804172</v>
+        <v>-43.30511044235912</v>
       </c>
       <c r="D85" t="n">
-        <v>3.570865204860592</v>
+        <v>3.570865203161242</v>
       </c>
       <c r="E85" t="n">
-        <v>0.4490068354920468</v>
+        <v>0.4490068354318639</v>
       </c>
       <c r="F85" t="n">
-        <v>0.6222336662756049</v>
+        <v>0.6222336661087908</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.8321995771125019</v>
+        <v>-0.8321995778758438</v>
       </c>
     </row>
     <row r="86">
@@ -4464,19 +4464,19 @@
         <v>60</v>
       </c>
       <c r="C86" t="n">
-        <v>-51.70591750312372</v>
+        <v>-51.70591749705169</v>
       </c>
       <c r="D86" t="n">
-        <v>5.028283789289221</v>
+        <v>5.028283787431875</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5363041225583813</v>
+        <v>0.5363041224939891</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9199642970721271</v>
+        <v>0.9199642968511839</v>
       </c>
       <c r="G86" t="n">
-        <v>0.4042687975858721</v>
+        <v>0.4042687965753018</v>
       </c>
     </row>
     <row r="87">
@@ -4487,19 +4487,19 @@
         <v>60</v>
       </c>
       <c r="C87" t="n">
-        <v>-112.0491945674835</v>
+        <v>-112.0491945607077</v>
       </c>
       <c r="D87" t="n">
-        <v>8.515842575652892</v>
+        <v>8.515842574830558</v>
       </c>
       <c r="E87" t="n">
-        <v>1.143983079140416</v>
+        <v>1.143983079070952</v>
       </c>
       <c r="F87" t="n">
-        <v>0.3383184223200146</v>
+        <v>0.3383184222796842</v>
       </c>
       <c r="G87" t="n">
-        <v>0.2912294911166935</v>
+        <v>0.2912294909049375</v>
       </c>
     </row>
     <row r="88">
@@ -4510,19 +4510,19 @@
         <v>61</v>
       </c>
       <c r="C88" t="n">
-        <v>-9.878149546833562</v>
+        <v>-9.878149547689526</v>
       </c>
       <c r="D88" t="n">
-        <v>-7.112777793680369</v>
+        <v>-7.11277779334098</v>
       </c>
       <c r="E88" t="n">
-        <v>0.1238016761894526</v>
+        <v>0.12380167619449</v>
       </c>
       <c r="F88" t="n">
-        <v>0.01725792771495094</v>
+        <v>0.0172579277164342</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.376341801202392</v>
+        <v>-1.37634180119519</v>
       </c>
     </row>
     <row r="89">
@@ -4533,19 +4533,19 @@
         <v>61</v>
       </c>
       <c r="C89" t="n">
-        <v>25.4773693309472</v>
+        <v>25.4773693272212</v>
       </c>
       <c r="D89" t="n">
-        <v>-13.85449730944066</v>
+        <v>-13.854497308665</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2944089033047082</v>
+        <v>0.2944089032677163</v>
       </c>
       <c r="F89" t="n">
-        <v>0.06890104060328994</v>
+        <v>0.06890104058560453</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.658751403363933</v>
+        <v>-0.6587514034438495</v>
       </c>
     </row>
     <row r="90">
@@ -4556,19 +4556,19 @@
         <v>63</v>
       </c>
       <c r="C90" t="n">
-        <v>-151.7162333232088</v>
+        <v>-151.7162332976861</v>
       </c>
       <c r="D90" t="n">
-        <v>-67.48688156281145</v>
+        <v>-67.48688156183483</v>
       </c>
       <c r="E90" t="n">
-        <v>1.73138711560841</v>
+        <v>1.731387115356013</v>
       </c>
       <c r="F90" t="n">
-        <v>0.482154111776282</v>
+        <v>0.4821541116293417</v>
       </c>
       <c r="G90" t="n">
-        <v>-14.98054160563818</v>
+        <v>-14.98054160744974</v>
       </c>
     </row>
     <row r="91">
@@ -4579,19 +4579,19 @@
         <v>64</v>
       </c>
       <c r="C91" t="n">
-        <v>-181.1349005229565</v>
+        <v>-181.1349003055503</v>
       </c>
       <c r="D91" t="n">
-        <v>-57.66200339725756</v>
+        <v>-57.66200334090995</v>
       </c>
       <c r="E91" t="n">
-        <v>1.997432600667943</v>
+        <v>1.997432598015585</v>
       </c>
       <c r="F91" t="n">
-        <v>3.207523864176238</v>
+        <v>3.207523855418003</v>
       </c>
       <c r="G91" t="n">
-        <v>-66.05259074143726</v>
+        <v>-66.05259085160444</v>
       </c>
     </row>
     <row r="92">
@@ -4602,19 +4602,19 @@
         <v>64</v>
       </c>
       <c r="C92" t="n">
-        <v>-182.6891515559308</v>
+        <v>-182.6891515154963</v>
       </c>
       <c r="D92" t="n">
-        <v>-66.50023622212808</v>
+        <v>-66.50023622170524</v>
       </c>
       <c r="E92" t="n">
-        <v>1.996256396716576</v>
+        <v>1.996256396320934</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9920644781956867</v>
+        <v>0.9920644777797349</v>
       </c>
       <c r="G92" t="n">
-        <v>-26.43996901542734</v>
+        <v>-26.43996902017209</v>
       </c>
     </row>
     <row r="93">
@@ -4625,19 +4625,19 @@
         <v>65</v>
       </c>
       <c r="C93" t="n">
-        <v>-132.1053925833111</v>
+        <v>-132.1053925466111</v>
       </c>
       <c r="D93" t="n">
-        <v>4.288166859364855</v>
+        <v>4.288166847714062</v>
       </c>
       <c r="E93" t="n">
-        <v>1.302537291224672</v>
+        <v>1.302537290859472</v>
       </c>
       <c r="F93" t="n">
-        <v>2.995318794511689</v>
+        <v>2.995318792828016</v>
       </c>
       <c r="G93" t="n">
-        <v>12.62289151197893</v>
+        <v>12.62289150338335</v>
       </c>
     </row>
     <row r="94">
@@ -4648,19 +4648,19 @@
         <v>65</v>
       </c>
       <c r="C94" t="n">
-        <v>-132.1053925833111</v>
+        <v>-132.1053925466111</v>
       </c>
       <c r="D94" t="n">
-        <v>4.288166859364855</v>
+        <v>4.288166847714062</v>
       </c>
       <c r="E94" t="n">
-        <v>1.302537291224672</v>
+        <v>1.302537290859472</v>
       </c>
       <c r="F94" t="n">
-        <v>2.995318794511689</v>
+        <v>2.995318792828016</v>
       </c>
       <c r="G94" t="n">
-        <v>12.62289151197893</v>
+        <v>12.62289150338335</v>
       </c>
     </row>
     <row r="95">
@@ -4671,19 +4671,19 @@
         <v>65</v>
       </c>
       <c r="C95" t="n">
-        <v>-37.17317885895827</v>
+        <v>-37.17317886124628</v>
       </c>
       <c r="D95" t="n">
-        <v>-17.26147214179403</v>
+        <v>-17.2614721411151</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4148236648275309</v>
+        <v>0.4148236648456403</v>
       </c>
       <c r="F95" t="n">
-        <v>0.7688336157611246</v>
+        <v>0.768833615834069</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.587379293694491</v>
+        <v>-2.58737929336495</v>
       </c>
     </row>
     <row r="96">
@@ -4694,19 +4694,19 @@
         <v>66</v>
       </c>
       <c r="C96" t="n">
-        <v>-24.31376032524655</v>
+        <v>-24.31376032753404</v>
       </c>
       <c r="D96" t="n">
-        <v>-14.41111443442698</v>
+        <v>-14.41111443381039</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2860644810725431</v>
+        <v>0.2860644810892777</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1960187439881373</v>
+        <v>0.1960187440127967</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.266496509690823</v>
+        <v>-2.266496509578687</v>
       </c>
     </row>
     <row r="97">
@@ -4717,19 +4717,19 @@
         <v>66</v>
       </c>
       <c r="C97" t="n">
-        <v>53.17167520435538</v>
+        <v>53.17167520669675</v>
       </c>
       <c r="D97" t="n">
-        <v>19.27107751900638</v>
+        <v>19.27107751866421</v>
       </c>
       <c r="E97" t="n">
-        <v>0.553657875821231</v>
+        <v>0.5536578758407156</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6618961351205428</v>
+        <v>0.6618961351683339</v>
       </c>
       <c r="G97" t="n">
-        <v>0.12645959427023</v>
+        <v>0.1264595944865015</v>
       </c>
     </row>
     <row r="98">
@@ -4740,19 +4740,19 @@
         <v>68</v>
       </c>
       <c r="C98" t="n">
-        <v>-56.10168185397521</v>
+        <v>-56.1016818124161</v>
       </c>
       <c r="D98" t="n">
-        <v>11.70696174118368</v>
+        <v>11.70696172903384</v>
       </c>
       <c r="E98" t="n">
-        <v>0.5828379146177409</v>
+        <v>0.5828379141804829</v>
       </c>
       <c r="F98" t="n">
-        <v>2.761013104892768</v>
+        <v>2.76101310066494</v>
       </c>
       <c r="G98" t="n">
-        <v>1.621343252601157</v>
+        <v>1.621343238523137</v>
       </c>
     </row>
     <row r="99">
@@ -4763,19 +4763,19 @@
         <v>68</v>
       </c>
       <c r="C99" t="n">
-        <v>-46.70446396723062</v>
+        <v>-46.70446392902797</v>
       </c>
       <c r="D99" t="n">
-        <v>10.72733659084616</v>
+        <v>10.72733657227788</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4921850335530425</v>
+        <v>0.4921850331407446</v>
       </c>
       <c r="F99" t="n">
-        <v>2.258171360466307</v>
+        <v>2.25817135659581</v>
       </c>
       <c r="G99" t="n">
-        <v>-1.35656538790791</v>
+        <v>-1.356565400639326</v>
       </c>
     </row>
     <row r="100">
@@ -4786,19 +4786,19 @@
         <v>69</v>
       </c>
       <c r="C100" t="n">
-        <v>108.3944336194803</v>
+        <v>108.3944335174995</v>
       </c>
       <c r="D100" t="n">
-        <v>16.07279610494706</v>
+        <v>16.07279611549875</v>
       </c>
       <c r="E100" t="n">
-        <v>1.086962481663014</v>
+        <v>1.086962480736008</v>
       </c>
       <c r="F100" t="n">
-        <v>3.433576092827636</v>
+        <v>3.433576086769705</v>
       </c>
       <c r="G100" t="n">
-        <v>2.094638026303404</v>
+        <v>2.094638000658406</v>
       </c>
     </row>
     <row r="101">
@@ -4809,19 +4809,19 @@
         <v>69</v>
       </c>
       <c r="C101" t="n">
-        <v>-6.289183040206312</v>
+        <v>-6.289182999086025</v>
       </c>
       <c r="D101" t="n">
-        <v>-2.971733009111427</v>
+        <v>-2.971733010425141</v>
       </c>
       <c r="E101" t="n">
-        <v>0.0950905406223272</v>
+        <v>0.09509054034218502</v>
       </c>
       <c r="F101" t="n">
-        <v>0.0009823075554820093</v>
+        <v>0.0009823075437624951</v>
       </c>
       <c r="G101" t="n">
-        <v>-9.771974902134117</v>
+        <v>-9.771974904319489</v>
       </c>
     </row>
     <row r="102">
@@ -4832,19 +4832,19 @@
         <v>70</v>
       </c>
       <c r="C102" t="n">
-        <v>16.72278170303679</v>
+        <v>16.72278165267066</v>
       </c>
       <c r="D102" t="n">
-        <v>-12.39248078768931</v>
+        <v>-12.39248079114168</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2136615950228354</v>
+        <v>0.2136615946285419</v>
       </c>
       <c r="F102" t="n">
-        <v>0.03851995404528097</v>
+        <v>0.03851995389946694</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.697548908923503</v>
+        <v>-0.6975489095156089</v>
       </c>
     </row>
     <row r="103">
@@ -4855,19 +4855,19 @@
         <v>71</v>
       </c>
       <c r="C103" t="n">
-        <v>1.39819321153541</v>
+        <v>1.398193243348102</v>
       </c>
       <c r="D103" t="n">
-        <v>3.32423240403405</v>
+        <v>3.324232396111568</v>
       </c>
       <c r="E103" t="n">
-        <v>0.08367208983046599</v>
+        <v>0.08367208980581486</v>
       </c>
       <c r="F103" t="n">
-        <v>0.01722496249533445</v>
+        <v>0.01722496249446048</v>
       </c>
       <c r="G103" t="n">
-        <v>-4.67530993358437</v>
+        <v>-4.675309933587821</v>
       </c>
     </row>
     <row r="104">
@@ -4878,19 +4878,19 @@
         <v>71</v>
       </c>
       <c r="C104" t="n">
-        <v>10.67185786402846</v>
+        <v>10.671857820475</v>
       </c>
       <c r="D104" t="n">
-        <v>-0.9557460734830022</v>
+        <v>-0.9557460605108705</v>
       </c>
       <c r="E104" t="n">
-        <v>0.1141045947234247</v>
+        <v>0.1141045943395966</v>
       </c>
       <c r="F104" t="n">
-        <v>0.05282611306871843</v>
+        <v>0.05282611265672266</v>
       </c>
       <c r="G104" t="n">
-        <v>-4.084729279858632</v>
+        <v>-4.084729281545848</v>
       </c>
     </row>
     <row r="105">
@@ -4901,19 +4901,19 @@
         <v>72</v>
       </c>
       <c r="C105" t="n">
-        <v>6.012403884962881</v>
+        <v>6.012403884816581</v>
       </c>
       <c r="D105" t="n">
-        <v>-10.7391858052824</v>
+        <v>-10.73918579308001</v>
       </c>
       <c r="E105" t="n">
-        <v>0.125977389283191</v>
+        <v>0.1259773891727582</v>
       </c>
       <c r="F105" t="n">
-        <v>0.01240388496298817</v>
+        <v>0.01240388494056521</v>
       </c>
       <c r="G105" t="n">
-        <v>-1.087022780557978</v>
+        <v>-1.087022780681636</v>
       </c>
     </row>
     <row r="106">
@@ -4924,19 +4924,19 @@
         <v>73</v>
       </c>
       <c r="C106" t="n">
-        <v>16.1510059929532</v>
+        <v>16.1510060030999</v>
       </c>
       <c r="D106" t="n">
-        <v>12.90876398165565</v>
+        <v>12.90876397876252</v>
       </c>
       <c r="E106" t="n">
-        <v>0.2341009479501434</v>
+        <v>0.2341009480026074</v>
       </c>
       <c r="F106" t="n">
-        <v>0.1955792935868814</v>
+        <v>0.1955792936878318</v>
       </c>
       <c r="G106" t="n">
-        <v>-2.530792329836807</v>
+        <v>-2.530792329503889</v>
       </c>
     </row>
     <row r="107">
@@ -4947,19 +4947,19 @@
         <v>74</v>
       </c>
       <c r="C107" t="n">
-        <v>-0.2030955166279699</v>
+        <v>-0.2030954985153274</v>
       </c>
       <c r="D107" t="n">
-        <v>9.960916339407687</v>
+        <v>9.96091631357919</v>
       </c>
       <c r="E107" t="n">
-        <v>0.1377441732363311</v>
+        <v>0.137744172969081</v>
       </c>
       <c r="F107" t="n">
-        <v>0.06056704938195845</v>
+        <v>0.06056704911145355</v>
       </c>
       <c r="G107" t="n">
-        <v>-3.227647594309573</v>
+        <v>-3.227647595301539</v>
       </c>
     </row>
     <row r="108">
@@ -4970,19 +4970,19 @@
         <v>74</v>
       </c>
       <c r="C108" t="n">
-        <v>109.9407547929247</v>
+        <v>109.9407547175179</v>
       </c>
       <c r="D108" t="n">
-        <v>20.49839488455727</v>
+        <v>20.4983948758752</v>
       </c>
       <c r="E108" t="n">
-        <v>1.113969198481273</v>
+        <v>1.113969197758487</v>
       </c>
       <c r="F108" t="n">
-        <v>4.848222538892969</v>
+        <v>4.848222532446187</v>
       </c>
       <c r="G108" t="n">
-        <v>2.161385960631705</v>
+        <v>2.161385940864694</v>
       </c>
     </row>
     <row r="109">
@@ -4993,19 +4993,19 @@
         <v>74</v>
       </c>
       <c r="C109" t="n">
-        <v>-52.04457329886912</v>
+        <v>-52.0445732711433</v>
       </c>
       <c r="D109" t="n">
-        <v>-6.173975318772889</v>
+        <v>-6.173975396572564</v>
       </c>
       <c r="E109" t="n">
-        <v>0.5525979941235292</v>
+        <v>0.5525979939298623</v>
       </c>
       <c r="F109" t="n">
-        <v>0.3673689344848796</v>
+        <v>0.3673689342170263</v>
       </c>
       <c r="G109" t="n">
-        <v>0.2543584876367309</v>
+        <v>0.2543584867235404</v>
       </c>
     </row>
     <row r="110">
@@ -5016,19 +5016,19 @@
         <v>76</v>
       </c>
       <c r="C110" t="n">
-        <v>-61.23183793177272</v>
+        <v>-61.23183790335032</v>
       </c>
       <c r="D110" t="n">
-        <v>-21.00752503997843</v>
+        <v>-21.00752505126572</v>
       </c>
       <c r="E110" t="n">
-        <v>0.6934162572250324</v>
+        <v>0.6934162569762958</v>
       </c>
       <c r="F110" t="n">
-        <v>2.059396147752821</v>
+        <v>2.059396146233262</v>
       </c>
       <c r="G110" t="n">
-        <v>3.366289425842883</v>
+        <v>3.366289420777704</v>
       </c>
     </row>
     <row r="111">
@@ -5039,19 +5039,19 @@
         <v>76</v>
       </c>
       <c r="C111" t="n">
-        <v>61.88946676374646</v>
+        <v>61.88946670116386</v>
       </c>
       <c r="D111" t="n">
-        <v>6.861575881187035</v>
+        <v>6.861575896536408</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6256804777933556</v>
+        <v>0.6256804772516347</v>
       </c>
       <c r="F111" t="n">
-        <v>1.149375043186446</v>
+        <v>1.149375041061951</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.055267652723924</v>
+        <v>-7.055267659668131</v>
       </c>
     </row>
     <row r="112">
@@ -5062,19 +5062,19 @@
         <v>76</v>
       </c>
       <c r="C112" t="n">
-        <v>-34.71511587775295</v>
+        <v>-34.71511586297606</v>
       </c>
       <c r="D112" t="n">
-        <v>-9.513612399935791</v>
+        <v>-9.513612391939404</v>
       </c>
       <c r="E112" t="n">
-        <v>0.3758655199425763</v>
+        <v>0.3758655197604531</v>
       </c>
       <c r="F112" t="n">
-        <v>0.8071871141088778</v>
+        <v>0.8071871133266058</v>
       </c>
       <c r="G112" t="n">
-        <v>-2.163191969304115</v>
+        <v>-2.163191972045478</v>
       </c>
     </row>
     <row r="113">
@@ -5085,19 +5085,19 @@
         <v>77</v>
       </c>
       <c r="C113" t="n">
-        <v>45.28411391643718</v>
+        <v>45.28411391711807</v>
       </c>
       <c r="D113" t="n">
-        <v>6.639636939588334</v>
+        <v>6.639636939363931</v>
       </c>
       <c r="E113" t="n">
-        <v>0.4615506688392046</v>
+        <v>0.4615506688455431</v>
       </c>
       <c r="F113" t="n">
-        <v>0.07815611540252831</v>
+        <v>0.07815611540566891</v>
       </c>
       <c r="G113" t="n">
-        <v>-1.018193558829594</v>
+        <v>-1.018193558823798</v>
       </c>
     </row>
     <row r="114">
@@ -5108,19 +5108,19 @@
         <v>78</v>
       </c>
       <c r="C114" t="n">
-        <v>-25.79404219896549</v>
+        <v>-25.79404219829092</v>
       </c>
       <c r="D114" t="n">
-        <v>-18.34216950158126</v>
+        <v>-18.3421695017929</v>
       </c>
       <c r="E114" t="n">
-        <v>0.3186131773983284</v>
+        <v>0.3186131773940281</v>
       </c>
       <c r="F114" t="n">
-        <v>0.05368065510670661</v>
+        <v>0.05368065510516473</v>
       </c>
       <c r="G114" t="n">
-        <v>-0.4163349560138307</v>
+        <v>-0.4163349560194973</v>
       </c>
     </row>
     <row r="115">
@@ -5131,19 +5131,19 @@
         <v>79</v>
       </c>
       <c r="C115" t="n">
-        <v>-96.80037882861852</v>
+        <v>-96.80037882718949</v>
       </c>
       <c r="D115" t="n">
-        <v>-37.32431814802012</v>
+        <v>-37.32431814858482</v>
       </c>
       <c r="E115" t="n">
-        <v>1.041698237346422</v>
+        <v>1.041698237335073</v>
       </c>
       <c r="F115" t="n">
-        <v>1.779028940847653</v>
+        <v>1.779028940807621</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1344839594771869</v>
+        <v>0.1344839593637204</v>
       </c>
     </row>
     <row r="116">
@@ -5154,19 +5154,19 @@
         <v>79</v>
       </c>
       <c r="C116" t="n">
-        <v>-44.47600813647372</v>
+        <v>-44.47600813578442</v>
       </c>
       <c r="D116" t="n">
-        <v>-20.50994571136353</v>
+        <v>-20.50994571158602</v>
       </c>
       <c r="E116" t="n">
-        <v>0.4917693034000595</v>
+        <v>0.4917693033947098</v>
       </c>
       <c r="F116" t="n">
-        <v>0.6834904564517785</v>
+        <v>0.6834904564363882</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0542923044701169</v>
+        <v>0.05429230441534472</v>
       </c>
     </row>
     <row r="117">
@@ -5177,19 +5177,19 @@
         <v>79</v>
       </c>
       <c r="C117" t="n">
-        <v>-64.8477228540722</v>
+        <v>-64.84772285338003</v>
       </c>
       <c r="D117" t="n">
-        <v>-29.55522979216839</v>
+        <v>-29.55522979232746</v>
       </c>
       <c r="E117" t="n">
-        <v>0.7132729914310935</v>
+        <v>0.7132729914254382</v>
       </c>
       <c r="F117" t="n">
-        <v>0.7693862021407085</v>
+        <v>0.7693862021284588</v>
       </c>
       <c r="G117" t="n">
-        <v>1.508480063080547</v>
+        <v>1.508480063024454</v>
       </c>
     </row>
     <row r="118">
@@ -5200,19 +5200,19 @@
         <v>81</v>
       </c>
       <c r="C118" t="n">
-        <v>-3.08117230214526</v>
+        <v>-3.081172305738776</v>
       </c>
       <c r="D118" t="n">
-        <v>17.57370799803647</v>
+        <v>17.57370799759409</v>
       </c>
       <c r="E118" t="n">
-        <v>0.2605908626291641</v>
+        <v>0.2605908626290306</v>
       </c>
       <c r="F118" t="n">
-        <v>0.1415783393195125</v>
+        <v>0.1415783393205658</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.72484608675795</v>
+        <v>-7.724846086767382</v>
       </c>
     </row>
     <row r="119">
@@ -5223,19 +5223,19 @@
         <v>82</v>
       </c>
       <c r="C119" t="n">
-        <v>-47.22969992347898</v>
+        <v>-47.22969992593124</v>
       </c>
       <c r="D119" t="n">
-        <v>24.39738130054623</v>
+        <v>24.39738130216193</v>
       </c>
       <c r="E119" t="n">
-        <v>0.5612073723013155</v>
+        <v>0.5612073723304978</v>
       </c>
       <c r="F119" t="n">
-        <v>0.3346419217323202</v>
+        <v>0.3346419217677052</v>
       </c>
       <c r="G119" t="n">
-        <v>-2.598872994288268</v>
+        <v>-2.598872994182926</v>
       </c>
     </row>
     <row r="120">
@@ -5246,19 +5246,19 @@
         <v>83</v>
       </c>
       <c r="C120" t="n">
-        <v>-24.78898252290234</v>
+        <v>-24.78898252362276</v>
       </c>
       <c r="D120" t="n">
-        <v>14.68829948937112</v>
+        <v>14.68829949027574</v>
       </c>
       <c r="E120" t="n">
-        <v>0.309027484851262</v>
+        <v>0.3090274848622739</v>
       </c>
       <c r="F120" t="n">
-        <v>0.5601938556113488</v>
+        <v>0.5601938556517219</v>
       </c>
       <c r="G120" t="n">
-        <v>-1.305046010060368</v>
+        <v>-1.305046009979273</v>
       </c>
     </row>
     <row r="121">
@@ -5269,19 +5269,19 @@
         <v>84</v>
       </c>
       <c r="C121" t="n">
-        <v>-42.77535932230924</v>
+        <v>-42.7753593234083</v>
       </c>
       <c r="D121" t="n">
-        <v>11.99794089228598</v>
+        <v>11.99794089348139</v>
       </c>
       <c r="E121" t="n">
-        <v>0.4652335028065286</v>
+        <v>0.4652335028207258</v>
       </c>
       <c r="F121" t="n">
-        <v>0.8950505803988023</v>
+        <v>0.8950505804528532</v>
       </c>
       <c r="G121" t="n">
-        <v>-0.2936098721534464</v>
+        <v>-0.2936098719710571</v>
       </c>
     </row>
     <row r="122">
@@ -5292,19 +5292,19 @@
         <v>84</v>
       </c>
       <c r="C122" t="n">
-        <v>-36.3491763785139</v>
+        <v>-36.34917637901103</v>
       </c>
       <c r="D122" t="n">
-        <v>8.993345499431619</v>
+        <v>8.993345500427132</v>
       </c>
       <c r="E122" t="n">
-        <v>0.3890314070711436</v>
+        <v>0.3890314070786551</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4446355876617076</v>
+        <v>0.4446355876786967</v>
       </c>
       <c r="G122" t="n">
-        <v>-0.2470910950445351</v>
+        <v>-0.2470910950090328</v>
       </c>
     </row>
     <row r="123">
@@ -5315,19 +5315,19 @@
         <v>85</v>
       </c>
       <c r="C123" t="n">
-        <v>17.17785013280929</v>
+        <v>17.17785013280486</v>
       </c>
       <c r="D123" t="n">
-        <v>-4.616337733584448</v>
+        <v>-4.616337733590415</v>
       </c>
       <c r="E123" t="n">
-        <v>0.1824060915800881</v>
+        <v>0.18240609158006</v>
       </c>
       <c r="F123" t="n">
-        <v>0.1103218558168564</v>
+        <v>0.1103218558167001</v>
       </c>
       <c r="G123" t="n">
-        <v>-2.285362256590873</v>
+        <v>-2.285362256591084</v>
       </c>
     </row>
     <row r="124">
@@ -5338,19 +5338,19 @@
         <v>87</v>
       </c>
       <c r="C124" t="n">
-        <v>-50.3989326737166</v>
+        <v>-50.39893267434075</v>
       </c>
       <c r="D124" t="n">
-        <v>7.601670145615815</v>
+        <v>7.601670145784592</v>
       </c>
       <c r="E124" t="n">
-        <v>0.5267385058808088</v>
+        <v>0.5267385058874172</v>
       </c>
       <c r="F124" t="n">
-        <v>0.5400781049612817</v>
+        <v>0.5400781049749241</v>
       </c>
       <c r="G124" t="n">
-        <v>0.06990049444668855</v>
+        <v>0.06990049451610592</v>
       </c>
     </row>
     <row r="125">
@@ -5361,19 +5361,19 @@
         <v>88</v>
       </c>
       <c r="C125" t="n">
-        <v>-71.24313932797594</v>
+        <v>-71.24313932861318</v>
       </c>
       <c r="D125" t="n">
-        <v>0.6787757819746465</v>
+        <v>0.6787757821463319</v>
       </c>
       <c r="E125" t="n">
-        <v>0.7306196257497796</v>
+        <v>0.7306196257563309</v>
       </c>
       <c r="F125" t="n">
-        <v>1.252448785291818</v>
+        <v>1.252448785314428</v>
       </c>
       <c r="G125" t="n">
-        <v>4.412255171777486</v>
+        <v>4.412255171941193</v>
       </c>
     </row>
     <row r="126">
@@ -5384,19 +5384,19 @@
         <v>88</v>
       </c>
       <c r="C126" t="n">
-        <v>-98.93901077867795</v>
+        <v>-98.93901077930501</v>
       </c>
       <c r="D126" t="n">
-        <v>-2.468230348831711</v>
+        <v>-2.468230348676852</v>
       </c>
       <c r="E126" t="n">
-        <v>1.012397504889506</v>
+        <v>1.01239750489589</v>
       </c>
       <c r="F126" t="n">
-        <v>1.395790809451867</v>
+        <v>1.395790809469545</v>
       </c>
       <c r="G126" t="n">
-        <v>5.230081898864053</v>
+        <v>5.230081898954325</v>
       </c>
     </row>
     <row r="127">
@@ -5407,19 +5407,19 @@
         <v>89</v>
       </c>
       <c r="C127" t="n">
-        <v>58.21813578618078</v>
+        <v>58.21813578612769</v>
       </c>
       <c r="D127" t="n">
-        <v>-4.724233546555476</v>
+        <v>-4.724233546547019</v>
       </c>
       <c r="E127" t="n">
-        <v>0.5870596535420164</v>
+        <v>0.5870596535414776</v>
       </c>
       <c r="F127" t="n">
-        <v>1.740429607383419</v>
+        <v>1.740429607380257</v>
       </c>
       <c r="G127" t="n">
-        <v>1.088757107877955</v>
+        <v>1.088757107866369</v>
       </c>
     </row>
     <row r="128">
@@ -5430,19 +5430,19 @@
         <v>89</v>
       </c>
       <c r="C128" t="n">
-        <v>110.8273692187305</v>
+        <v>110.8273692186289</v>
       </c>
       <c r="D128" t="n">
-        <v>-5.441921391013587</v>
+        <v>-5.441921391000994</v>
       </c>
       <c r="E128" t="n">
-        <v>1.115240919218173</v>
+        <v>1.115240919217148</v>
       </c>
       <c r="F128" t="n">
-        <v>2.894270784422105</v>
+        <v>2.894270784416904</v>
       </c>
       <c r="G128" t="n">
-        <v>1.628994210373599</v>
+        <v>1.628994210351454</v>
       </c>
     </row>
     <row r="129">
@@ -5453,19 +5453,19 @@
         <v>90</v>
       </c>
       <c r="C129" t="n">
-        <v>1.410804613105518</v>
+        <v>1.410804612960505</v>
       </c>
       <c r="D129" t="n">
-        <v>4.424392801252301</v>
+        <v>4.424392801296595</v>
       </c>
       <c r="E129" t="n">
-        <v>0.06816284535271032</v>
+        <v>0.06816284535283912</v>
       </c>
       <c r="F129" t="n">
-        <v>0.00833283947915775</v>
+        <v>0.008332839479172183</v>
       </c>
       <c r="G129" t="n">
-        <v>-2.038342553919407</v>
+        <v>-2.038342553919368</v>
       </c>
     </row>
     <row r="130">
@@ -5476,19 +5476,19 @@
         <v>91</v>
       </c>
       <c r="C130" t="n">
-        <v>201.5323026817935</v>
+        <v>201.5323026809265</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.103170905351932</v>
+        <v>-2.103170905272228</v>
       </c>
       <c r="E130" t="n">
-        <v>2.025662361157519</v>
+        <v>2.025662361148797</v>
       </c>
       <c r="F130" t="n">
-        <v>3.981045341686126</v>
+        <v>3.981045341651736</v>
       </c>
       <c r="G130" t="n">
-        <v>14.8544100005201</v>
+        <v>14.85441000034535</v>
       </c>
     </row>
     <row r="131">
@@ -5499,19 +5499,19 @@
         <v>91</v>
       </c>
       <c r="C131" t="n">
-        <v>63.59180261189782</v>
+        <v>63.59180261162556</v>
       </c>
       <c r="D131" t="n">
-        <v>-5.066343258969612</v>
+        <v>-5.066343258930705</v>
       </c>
       <c r="E131" t="n">
-        <v>0.6411709185119556</v>
+        <v>0.6411709185091969</v>
       </c>
       <c r="F131" t="n">
-        <v>1.576930473180113</v>
+        <v>1.576930473166506</v>
       </c>
       <c r="G131" t="n">
-        <v>2.224276054319996</v>
+        <v>2.224276054265472</v>
       </c>
     </row>
     <row r="132">
@@ -5522,19 +5522,19 @@
         <v>91</v>
       </c>
       <c r="C132" t="n">
-        <v>-8.597528226373615</v>
+        <v>-8.597528226517657</v>
       </c>
       <c r="D132" t="n">
-        <v>-6.625270532758367</v>
+        <v>-6.625270532713171</v>
       </c>
       <c r="E132" t="n">
-        <v>0.1118749729707653</v>
+        <v>0.1118749729716571</v>
       </c>
       <c r="F132" t="n">
-        <v>0.04008633133345896</v>
+        <v>0.0400863313342672</v>
       </c>
       <c r="G132" t="n">
-        <v>-3.039020376082255</v>
+        <v>-3.039020376079648</v>
       </c>
     </row>
     <row r="133">
@@ -5545,19 +5545,19 @@
         <v>92</v>
       </c>
       <c r="C133" t="n">
-        <v>57.6208615770143</v>
+        <v>57.62086157716039</v>
       </c>
       <c r="D133" t="n">
-        <v>-11.65810760485928</v>
+        <v>-11.65810760575553</v>
       </c>
       <c r="E133" t="n">
-        <v>0.5998203559580118</v>
+        <v>0.5998203559612865</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9035152954079635</v>
+        <v>0.9035152954172148</v>
       </c>
       <c r="G133" t="n">
-        <v>0.8429082023860524</v>
+        <v>0.8429082024156287</v>
       </c>
     </row>
     <row r="134">
@@ -5568,19 +5568,19 @@
         <v>93</v>
       </c>
       <c r="C134" t="n">
-        <v>52.16744363987959</v>
+        <v>52.16744364006291</v>
       </c>
       <c r="D134" t="n">
-        <v>-15.21419140103849</v>
+        <v>-15.21419140191985</v>
       </c>
       <c r="E134" t="n">
-        <v>0.5544405621997145</v>
+        <v>0.554440562204028</v>
       </c>
       <c r="F134" t="n">
-        <v>1.421421947532728</v>
+        <v>1.421421947553483</v>
       </c>
       <c r="G134" t="n">
-        <v>0.6905928808917299</v>
+        <v>0.6905928809546857</v>
       </c>
     </row>
     <row r="135">
@@ -5591,19 +5591,19 @@
         <v>93</v>
       </c>
       <c r="C135" t="n">
-        <v>44.71734628160612</v>
+        <v>44.7173462818136</v>
       </c>
       <c r="D135" t="n">
-        <v>-19.50101580724525</v>
+        <v>-19.50101580814606</v>
       </c>
       <c r="E135" t="n">
-        <v>0.5000571039414478</v>
+        <v>0.5000571039467091</v>
       </c>
       <c r="F135" t="n">
-        <v>0.5385628846817809</v>
+        <v>0.5385628846930146</v>
       </c>
       <c r="G135" t="n">
-        <v>-0.06205378423537766</v>
+        <v>-0.06205378420265717</v>
       </c>
     </row>
     <row r="136">
@@ -5614,19 +5614,19 @@
         <v>94</v>
       </c>
       <c r="C136" t="n">
-        <v>40.864161650873</v>
+        <v>40.86416165377366</v>
       </c>
       <c r="D136" t="n">
-        <v>9.01276792827956</v>
+        <v>9.012767926424626</v>
       </c>
       <c r="E136" t="n">
-        <v>0.4294554677441481</v>
+        <v>0.429455467767748</v>
       </c>
       <c r="F136" t="n">
-        <v>0.2372805865604803</v>
+        <v>0.2372805865868131</v>
       </c>
       <c r="G136" t="n">
-        <v>-0.2970040475476274</v>
+        <v>-0.2970040474640836</v>
       </c>
     </row>
     <row r="137">
@@ -5637,19 +5637,19 @@
         <v>95</v>
       </c>
       <c r="C137" t="n">
-        <v>18.98782176453339</v>
+        <v>18.98782176192621</v>
       </c>
       <c r="D137" t="n">
-        <v>21.06223441110163</v>
+        <v>21.06223441055424</v>
       </c>
       <c r="E137" t="n">
-        <v>0.3145464016397143</v>
+        <v>0.3145464016207053</v>
       </c>
       <c r="F137" t="n">
-        <v>0.3040712624130748</v>
+        <v>0.3040712623719202</v>
       </c>
       <c r="G137" t="n">
-        <v>-3.549059480262507</v>
+        <v>-3.549059480481418</v>
       </c>
     </row>
     <row r="138">
@@ -5660,19 +5660,19 @@
         <v>95</v>
       </c>
       <c r="C138" t="n">
-        <v>-9.993050717985099</v>
+        <v>-9.993050719447373</v>
       </c>
       <c r="D138" t="n">
-        <v>-6.554363923935472</v>
+        <v>-6.554363924009021</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1221134727348538</v>
+        <v>0.1221134727475788</v>
       </c>
       <c r="F138" t="n">
-        <v>0.01907124296474372</v>
+        <v>0.01907124296957008</v>
       </c>
       <c r="G138" t="n">
-        <v>-5.273839329508632</v>
+        <v>-5.273839329509624</v>
       </c>
     </row>
     <row r="139">
@@ -5683,19 +5683,19 @@
         <v>95</v>
       </c>
       <c r="C139" t="n">
-        <v>19.79152047451663</v>
+        <v>19.79152047802331</v>
       </c>
       <c r="D139" t="n">
-        <v>-9.823367635840215</v>
+        <v>-9.823367637267479</v>
       </c>
       <c r="E139" t="n">
-        <v>0.2254778448786652</v>
+        <v>0.2254778449168806</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1283096020503969</v>
+        <v>0.1283096020950403</v>
       </c>
       <c r="G139" t="n">
-        <v>-1.844549580951008</v>
+        <v>-1.844549580814066</v>
       </c>
     </row>
     <row r="140">
@@ -5706,19 +5706,19 @@
         <v>96</v>
       </c>
       <c r="C140" t="n">
-        <v>26.44470613130467</v>
+        <v>26.44470612886218</v>
       </c>
       <c r="D140" t="n">
-        <v>25.74912593689901</v>
+        <v>25.74912593593589</v>
       </c>
       <c r="E140" t="n">
-        <v>0.3771480565815793</v>
+        <v>0.3771480565586144</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2427874130241499</v>
+        <v>0.2427874129933265</v>
       </c>
       <c r="G140" t="n">
-        <v>-1.433008798879015</v>
+        <v>-1.433008799038923</v>
       </c>
     </row>
     <row r="141">
@@ -5729,19 +5729,19 @@
         <v>97</v>
       </c>
       <c r="C141" t="n">
-        <v>28.95903118108296</v>
+        <v>28.95903117678393</v>
       </c>
       <c r="D141" t="n">
-        <v>8.316343891533059</v>
+        <v>8.316343889987094</v>
       </c>
       <c r="E141" t="n">
-        <v>0.3018452238415349</v>
+        <v>0.3018452237972519</v>
       </c>
       <c r="F141" t="n">
-        <v>0.205940608949426</v>
+        <v>0.2059406088878077</v>
       </c>
       <c r="G141" t="n">
-        <v>-2.11019218653971</v>
+        <v>-2.110192186825822</v>
       </c>
     </row>
     <row r="142">
@@ -5752,19 +5752,19 @@
         <v>98</v>
       </c>
       <c r="C142" t="n">
-        <v>19.57384809238013</v>
+        <v>19.57384808846599</v>
       </c>
       <c r="D142" t="n">
-        <v>8.166607965569298</v>
+        <v>8.166607966295683</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2328907120631584</v>
+        <v>0.2328907120365776</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2127184977415943</v>
+        <v>0.2127184976840084</v>
       </c>
       <c r="G142" t="n">
-        <v>-4.772442530071398</v>
+        <v>-4.772442530332325</v>
       </c>
     </row>
     <row r="143">
@@ -5775,19 +5775,19 @@
         <v>99</v>
       </c>
       <c r="C143" t="n">
-        <v>31.49307472785114</v>
+        <v>31.4930747271287</v>
       </c>
       <c r="D143" t="n">
-        <v>-16.53182158208314</v>
+        <v>-16.53182158200019</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3629063712615402</v>
+        <v>0.3629063712546205</v>
       </c>
       <c r="F143" t="n">
-        <v>0.7894133019790068</v>
+        <v>0.7894133019473735</v>
       </c>
       <c r="G143" t="n">
-        <v>-1.160178347348563</v>
+        <v>-1.160178347492661</v>
       </c>
     </row>
     <row r="144">
@@ -5798,19 +5798,19 @@
         <v>99</v>
       </c>
       <c r="C144" t="n">
-        <v>4.269122963881511</v>
+        <v>4.269122960112615</v>
       </c>
       <c r="D144" t="n">
-        <v>-50.53314659737879</v>
+        <v>-50.53314659399736</v>
       </c>
       <c r="E144" t="n">
-        <v>0.5175167085473182</v>
+        <v>0.5175167085089762</v>
       </c>
       <c r="F144" t="n">
-        <v>0.4145004474547216</v>
+        <v>0.4145004473893392</v>
       </c>
       <c r="G144" t="n">
-        <v>-4.731825251057202</v>
+        <v>-4.731825251279304</v>
       </c>
     </row>
     <row r="145">
@@ -5821,19 +5821,19 @@
         <v>95</v>
       </c>
       <c r="C145" t="n">
-        <v>-1.373118935688147</v>
+        <v>-1.37311893249032</v>
       </c>
       <c r="D145" t="n">
-        <v>-21.69022802417255</v>
+        <v>-21.69022802502221</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2239360103111732</v>
+        <v>0.223936010317408</v>
       </c>
       <c r="F145" t="n">
-        <v>0.07866763768102536</v>
+        <v>0.07866763768564367</v>
       </c>
       <c r="G145" t="n">
-        <v>-1.182321279991843</v>
+        <v>-1.18232127998284</v>
       </c>
     </row>
     <row r="146">
@@ -5844,19 +5844,19 @@
         <v>96</v>
       </c>
       <c r="C146" t="n">
-        <v>-11.11694715973357</v>
+        <v>-11.11694715701011</v>
       </c>
       <c r="D146" t="n">
-        <v>-20.15595550213359</v>
+        <v>-20.1559555021842</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2343176379894255</v>
+        <v>0.2343176379760764</v>
       </c>
       <c r="F146" t="n">
-        <v>0.08497155854700367</v>
+        <v>0.08497155853625138</v>
       </c>
       <c r="G146" t="n">
-        <v>-1.973820766355971</v>
+        <v>-1.973820766417315</v>
       </c>
     </row>
     <row r="147">
@@ -5867,19 +5867,19 @@
         <v>99</v>
       </c>
       <c r="C147" t="n">
-        <v>-5.246909427866322</v>
+        <v>-5.246909431222329</v>
       </c>
       <c r="D147" t="n">
-        <v>2.426536078072789</v>
+        <v>2.426536080272022</v>
       </c>
       <c r="E147" t="n">
-        <v>0.0893472264676466</v>
+        <v>0.08934722650431162</v>
       </c>
       <c r="F147" t="n">
-        <v>0.01960576528059743</v>
+        <v>0.01960576530207891</v>
       </c>
       <c r="G147" t="n">
-        <v>-4.866424792108763</v>
+        <v>-4.866424792023979</v>
       </c>
     </row>
     <row r="148">
@@ -5890,19 +5890,19 @@
         <v>99</v>
       </c>
       <c r="C148" t="n">
-        <v>-22.63887040536155</v>
+        <v>-22.63887040857351</v>
       </c>
       <c r="D148" t="n">
-        <v>-4.596384034355762</v>
+        <v>-4.596384033587499</v>
       </c>
       <c r="E148" t="n">
-        <v>0.2310307218690645</v>
+        <v>0.2310307218990164</v>
       </c>
       <c r="F148" t="n">
-        <v>0.09259054846275205</v>
+        <v>0.09259054848750026</v>
       </c>
       <c r="G148" t="n">
-        <v>-1.800539476109784</v>
+        <v>-1.800539475998375</v>
       </c>
     </row>
     <row r="149">
@@ -5913,19 +5913,19 @@
         <v>100</v>
       </c>
       <c r="C149" t="n">
-        <v>-16.73882925850751</v>
+        <v>-16.73882925784715</v>
       </c>
       <c r="D149" t="n">
-        <v>22.89863041481136</v>
+        <v>22.89863041452525</v>
       </c>
       <c r="E149" t="n">
-        <v>0.3089531248904882</v>
+        <v>0.3089531248845812</v>
       </c>
       <c r="F149" t="n">
-        <v>0.2370435392055086</v>
+        <v>0.2370435391958665</v>
       </c>
       <c r="G149" t="n">
-        <v>-2.228251913275997</v>
+        <v>-2.228251913320612</v>
       </c>
     </row>
     <row r="150">
@@ -5936,19 +5936,19 @@
         <v>101</v>
       </c>
       <c r="C150" t="n">
-        <v>44.64713497637264</v>
+        <v>44.64713497564574</v>
       </c>
       <c r="D150" t="n">
-        <v>-8.389532364220022</v>
+        <v>-8.389532364256794</v>
       </c>
       <c r="E150" t="n">
-        <v>0.4635090842112115</v>
+        <v>0.463509084203992</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2575492453458708</v>
+        <v>0.2575492453379624</v>
       </c>
       <c r="G150" t="n">
-        <v>-0.2631194675703856</v>
+        <v>-0.2631194676072397</v>
       </c>
     </row>
     <row r="151">
@@ -5959,19 +5959,19 @@
         <v>101</v>
       </c>
       <c r="C151" t="n">
-        <v>-38.97587279771328</v>
+        <v>-38.97587279700502</v>
       </c>
       <c r="D151" t="n">
-        <v>10.1268823280874</v>
+        <v>10.12688232794084</v>
       </c>
       <c r="E151" t="n">
-        <v>0.4179862622437974</v>
+        <v>0.4179862622364322</v>
       </c>
       <c r="F151" t="n">
-        <v>0.4137129333136329</v>
+        <v>0.413712933298882</v>
       </c>
       <c r="G151" t="n">
-        <v>-0.9995305685614717</v>
+        <v>-0.9995305686296323</v>
       </c>
     </row>
     <row r="152">
@@ -5982,19 +5982,19 @@
         <v>102</v>
       </c>
       <c r="C152" t="n">
-        <v>121.7532994242382</v>
+        <v>121.7532994186483</v>
       </c>
       <c r="D152" t="n">
-        <v>-22.14849056497193</v>
+        <v>-22.14849056365992</v>
       </c>
       <c r="E152" t="n">
-        <v>1.229119620181645</v>
+        <v>1.22911962012469</v>
       </c>
       <c r="F152" t="n">
-        <v>2.351268304310253</v>
+        <v>2.351268304091619</v>
       </c>
       <c r="G152" t="n">
-        <v>2.209336603517084</v>
+        <v>2.209336602800317</v>
       </c>
     </row>
     <row r="153">
@@ -6005,19 +6005,19 @@
         <v>103</v>
       </c>
       <c r="C153" t="n">
-        <v>56.18465977704842</v>
+        <v>56.18465977460306</v>
       </c>
       <c r="D153" t="n">
-        <v>10.6469941469991</v>
+        <v>10.64699414726278</v>
       </c>
       <c r="E153" t="n">
-        <v>0.5776907636147155</v>
+        <v>0.5776907635922373</v>
       </c>
       <c r="F153" t="n">
-        <v>1.455301381963579</v>
+        <v>1.455301381846887</v>
       </c>
       <c r="G153" t="n">
-        <v>1.23460130832766</v>
+        <v>1.234601307799625</v>
       </c>
     </row>
     <row r="154">
@@ -6028,19 +6028,19 @@
         <v>103</v>
       </c>
       <c r="C154" t="n">
-        <v>32.45211148259172</v>
+        <v>32.4521114813598</v>
       </c>
       <c r="D154" t="n">
-        <v>13.86710001395955</v>
+        <v>13.86710001426272</v>
       </c>
       <c r="E154" t="n">
-        <v>0.3700459293159125</v>
+        <v>0.3700459293066443</v>
       </c>
       <c r="F154" t="n">
-        <v>0.5972067520220783</v>
+        <v>0.5972067519899724</v>
       </c>
       <c r="G154" t="n">
-        <v>-1.964594601946457</v>
+        <v>-1.964594602055552</v>
       </c>
     </row>
     <row r="155">
@@ -6051,19 +6051,19 @@
         <v>104</v>
       </c>
       <c r="C155" t="n">
-        <v>43.35108513816481</v>
+        <v>43.35108513625362</v>
       </c>
       <c r="D155" t="n">
-        <v>12.84851870059229</v>
+        <v>12.84851870108837</v>
       </c>
       <c r="E155" t="n">
-        <v>0.4641972218240488</v>
+        <v>0.4641972218081231</v>
       </c>
       <c r="F155" t="n">
-        <v>1.102520212172614</v>
+        <v>1.102520212093467</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.6319266546159135</v>
+        <v>-0.6319266548563025</v>
       </c>
     </row>
     <row r="156">
@@ -6074,19 +6074,19 @@
         <v>105</v>
       </c>
       <c r="C156" t="n">
-        <v>60.36117785254831</v>
+        <v>60.36117784965596</v>
       </c>
       <c r="D156" t="n">
-        <v>9.475983515925503</v>
+        <v>9.475983513277082</v>
       </c>
       <c r="E156" t="n">
-        <v>0.6155383045939727</v>
+        <v>0.6155383045597331</v>
       </c>
       <c r="F156" t="n">
-        <v>2.225305269390823</v>
+        <v>2.225305269147356</v>
       </c>
       <c r="G156" t="n">
-        <v>2.352973453436416</v>
+        <v>2.352973452473091</v>
       </c>
     </row>
     <row r="157">
@@ -6097,19 +6097,19 @@
         <v>104</v>
       </c>
       <c r="C157" t="n">
-        <v>48.58426312565411</v>
+        <v>48.58426312255606</v>
       </c>
       <c r="D157" t="n">
-        <v>2.632339235926208</v>
+        <v>2.632339236677894</v>
       </c>
       <c r="E157" t="n">
-        <v>0.5066688288931089</v>
+        <v>0.5066688288615435</v>
       </c>
       <c r="F157" t="n">
-        <v>0.2498621596277673</v>
+        <v>0.2498621595966242</v>
       </c>
       <c r="G157" t="n">
-        <v>0.02626550565488062</v>
+        <v>0.02626550553648954</v>
       </c>
     </row>
     <row r="158">
@@ -6120,19 +6120,19 @@
         <v>105</v>
       </c>
       <c r="C158" t="n">
-        <v>8.863146404882748</v>
+        <v>8.863146402584761</v>
       </c>
       <c r="D158" t="n">
-        <v>3.87988856695425</v>
+        <v>3.879888555274097</v>
       </c>
       <c r="E158" t="n">
-        <v>0.1076017740326046</v>
+        <v>0.1076017739498983</v>
       </c>
       <c r="F158" t="n">
-        <v>0.0149190740899936</v>
+        <v>0.01491907406803072</v>
       </c>
       <c r="G158" t="n">
-        <v>-1.271763579972765</v>
+        <v>-1.271763580068511</v>
       </c>
     </row>
     <row r="159">
@@ -6143,19 +6143,19 @@
         <v>106</v>
       </c>
       <c r="C159" t="n">
-        <v>26.75471105255453</v>
+        <v>26.75471105143718</v>
       </c>
       <c r="D159" t="n">
-        <v>-2.374935407052785</v>
+        <v>-2.374935406792862</v>
       </c>
       <c r="E159" t="n">
-        <v>0.2811525845855969</v>
+        <v>0.2811525845737065</v>
       </c>
       <c r="F159" t="n">
-        <v>0.4074185818844178</v>
+        <v>0.4074185818503544</v>
       </c>
       <c r="G159" t="n">
-        <v>-2.929821261040599</v>
+        <v>-2.929821261158236</v>
       </c>
     </row>
     <row r="160">
@@ -6166,19 +6166,19 @@
         <v>107</v>
       </c>
       <c r="C160" t="n">
-        <v>23.96510843458185</v>
+        <v>23.96510843432972</v>
       </c>
       <c r="D160" t="n">
-        <v>-11.12845932681132</v>
+        <v>-11.12845932903762</v>
       </c>
       <c r="E160" t="n">
-        <v>0.2765780955640463</v>
+        <v>0.2765780955714675</v>
       </c>
       <c r="F160" t="n">
-        <v>0.1905306725411684</v>
+        <v>0.1905306725506755</v>
       </c>
       <c r="G160" t="n">
-        <v>-1.206144709394254</v>
+        <v>-1.206144709371925</v>
       </c>
     </row>
     <row r="161">
@@ -6189,19 +6189,19 @@
         <v>106</v>
       </c>
       <c r="C161" t="n">
-        <v>23.98409991395022</v>
+        <v>23.9840999138131</v>
       </c>
       <c r="D161" t="n">
-        <v>-3.725337790583676</v>
+        <v>-3.725337786950364</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2550794134275566</v>
+        <v>0.2550794134184261</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3313923846201341</v>
+        <v>0.3313923846050599</v>
       </c>
       <c r="G161" t="n">
-        <v>-3.174809105238121</v>
+        <v>-3.174809105321729</v>
       </c>
     </row>
     <row r="162">
@@ -6212,19 +6212,19 @@
         <v>108</v>
       </c>
       <c r="C162" t="n">
-        <v>21.77457776204085</v>
+        <v>21.77457776135907</v>
       </c>
       <c r="D162" t="n">
-        <v>-10.92231461741756</v>
+        <v>-10.92231461699224</v>
       </c>
       <c r="E162" t="n">
-        <v>0.2546695042258509</v>
+        <v>0.2546695042170388</v>
       </c>
       <c r="F162" t="n">
-        <v>0.0658867604645188</v>
+        <v>0.06588676046008857</v>
       </c>
       <c r="G162" t="n">
-        <v>-0.5293893674157406</v>
+        <v>-0.5293893674307899</v>
       </c>
     </row>
     <row r="163">
@@ -6235,19 +6235,19 @@
         <v>109</v>
       </c>
       <c r="C163" t="n">
-        <v>60.59883449917157</v>
+        <v>60.59883449765998</v>
       </c>
       <c r="D163" t="n">
-        <v>8.348917699028089</v>
+        <v>8.348917699186392</v>
       </c>
       <c r="E163" t="n">
-        <v>0.6173554825456987</v>
+        <v>0.6173554825313151</v>
       </c>
       <c r="F163" t="n">
-        <v>1.449946583239161</v>
+        <v>1.449946583170266</v>
       </c>
       <c r="G163" t="n">
-        <v>2.196497955339417</v>
+        <v>2.19649795501974</v>
       </c>
     </row>
     <row r="164">
@@ -6258,19 +6258,19 @@
         <v>109</v>
       </c>
       <c r="C164" t="n">
-        <v>13.70869100157619</v>
+        <v>13.70869100280314</v>
       </c>
       <c r="D164" t="n">
-        <v>-13.39292525000296</v>
+        <v>-13.39292524837426</v>
       </c>
       <c r="E164" t="n">
-        <v>0.2001873064544001</v>
+        <v>0.2001873064513389</v>
       </c>
       <c r="F164" t="n">
-        <v>0.1019356182318507</v>
+        <v>0.1019356182295184</v>
       </c>
       <c r="G164" t="n">
-        <v>-1.621279781612323</v>
+        <v>-1.62127978162208</v>
       </c>
     </row>
     <row r="165">
@@ -6281,19 +6281,19 @@
         <v>110</v>
       </c>
       <c r="C165" t="n">
-        <v>-35.70294492226441</v>
+        <v>-35.7029449222645</v>
       </c>
       <c r="D165" t="n">
-        <v>0.9561348016968169</v>
+        <v>0.9561348016972263</v>
       </c>
       <c r="E165" t="n">
-        <v>0.3715438774401537</v>
+        <v>0.3715438774401525</v>
       </c>
       <c r="F165" t="n">
-        <v>0.2970550777356635</v>
+        <v>0.2970550777354362</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.8876899832261315</v>
+        <v>-0.8876899832261348</v>
       </c>
     </row>
     <row r="166">
@@ -6304,19 +6304,19 @@
         <v>111</v>
       </c>
       <c r="C166" t="n">
-        <v>69.45858822154098</v>
+        <v>69.45858822154109</v>
       </c>
       <c r="D166" t="n">
-        <v>-30.61415289489166</v>
+        <v>-30.6141528948914</v>
       </c>
       <c r="E166" t="n">
         <v>0.7880034318709581</v>
       </c>
       <c r="F166" t="n">
-        <v>1.458588221541035</v>
+        <v>1.458588221541191</v>
       </c>
       <c r="G166" t="n">
-        <v>-2.102459498031369</v>
+        <v>-2.102459498031376</v>
       </c>
     </row>
     <row r="167">
@@ -6327,19 +6327,19 @@
         <v>112</v>
       </c>
       <c r="C167" t="n">
-        <v>2.032180090230645</v>
+        <v>2.032180098960047</v>
       </c>
       <c r="D167" t="n">
-        <v>5.905383481075289</v>
+        <v>5.905383521178741</v>
       </c>
       <c r="E167" t="n">
-        <v>0.07073105776523021</v>
+        <v>0.07073105817968631</v>
       </c>
       <c r="F167" t="n">
-        <v>0.004023653477935873</v>
+        <v>0.004023653528219651</v>
       </c>
       <c r="G167" t="n">
-        <v>-0.7456142091561269</v>
+        <v>-0.7456142090022544</v>
       </c>
     </row>
     <row r="168">
@@ -6350,19 +6350,19 @@
         <v>112</v>
       </c>
       <c r="C168" t="n">
-        <v>4.140563074274827</v>
+        <v>4.140563064865751</v>
       </c>
       <c r="D168" t="n">
-        <v>-17.80548167599113</v>
+        <v>-17.80548167333151</v>
       </c>
       <c r="E168" t="n">
-        <v>0.1917469134869794</v>
+        <v>0.1917469134374533</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1687195110275441</v>
+        <v>0.1687195109215498</v>
       </c>
       <c r="G168" t="n">
-        <v>-4.398841063274624</v>
+        <v>-4.398841063624548</v>
       </c>
     </row>
     <row r="169">
@@ -6373,19 +6373,19 @@
         <v>113</v>
       </c>
       <c r="C169" t="n">
-        <v>9.372673128190582</v>
+        <v>9.372673126388007</v>
       </c>
       <c r="D169" t="n">
-        <v>1.777464661974081</v>
+        <v>1.777464652163476</v>
       </c>
       <c r="E169" t="n">
-        <v>0.1041307267667917</v>
+        <v>0.1041307267149149</v>
       </c>
       <c r="F169" t="n">
-        <v>0.01372168788826755</v>
+        <v>0.01372168787610839</v>
       </c>
       <c r="G169" t="n">
-        <v>-1.44300125269273</v>
+        <v>-1.443001252757897</v>
       </c>
     </row>
     <row r="170">
@@ -6396,19 +6396,19 @@
         <v>114</v>
       </c>
       <c r="C170" t="n">
-        <v>20.72252457428369</v>
+        <v>20.72252457173935</v>
       </c>
       <c r="D170" t="n">
-        <v>5.060627854987822</v>
+        <v>5.060627847029436</v>
       </c>
       <c r="E170" t="n">
-        <v>0.2277722012898424</v>
+        <v>0.2277722012384265</v>
       </c>
       <c r="F170" t="n">
-        <v>0.08142691889652554</v>
+        <v>0.08142691886142828</v>
       </c>
       <c r="G170" t="n">
-        <v>-1.464735906501252</v>
+        <v>-1.464735906672458</v>
       </c>
     </row>
     <row r="171">
@@ -6419,19 +6419,19 @@
         <v>114</v>
       </c>
       <c r="C171" t="n">
-        <v>1.358951440301333</v>
+        <v>1.358951439368079</v>
       </c>
       <c r="D171" t="n">
-        <v>0.2204659146683264</v>
+        <v>0.2204659146570548</v>
       </c>
       <c r="E171" t="n">
-        <v>0.01514492450282012</v>
+        <v>0.01514492449341556</v>
       </c>
       <c r="F171" t="n">
-        <v>4.909568868671776e-05</v>
+        <v>4.909568960642652e-05</v>
       </c>
       <c r="G171" t="n">
-        <v>-0.2541703238439413</v>
+        <v>-0.2541703238487193</v>
       </c>
     </row>
     <row r="172">
@@ -6442,19 +6442,19 @@
         <v>116</v>
       </c>
       <c r="C172" t="n">
-        <v>20.15254993807994</v>
+        <v>20.15254993803928</v>
       </c>
       <c r="D172" t="n">
-        <v>5.197251717446405</v>
+        <v>5.197251717281643</v>
       </c>
       <c r="E172" t="n">
-        <v>0.2234308423482275</v>
+        <v>0.223430842347182</v>
       </c>
       <c r="F172" t="n">
-        <v>0.1525499380798934</v>
+        <v>0.1525499380785504</v>
       </c>
       <c r="G172" t="n">
-        <v>-2.802748282553661</v>
+        <v>-2.802748282560017</v>
       </c>
     </row>
     <row r="173">
@@ -6465,19 +6465,19 @@
         <v>117</v>
       </c>
       <c r="C173" t="n">
-        <v>40.13204333691264</v>
+        <v>40.13204330310059</v>
       </c>
       <c r="D173" t="n">
-        <v>23.61085146204503</v>
+        <v>23.61085144446468</v>
       </c>
       <c r="E173" t="n">
-        <v>0.4921078055494577</v>
+        <v>0.4921078051383374</v>
       </c>
       <c r="F173" t="n">
-        <v>0.3401090953687955</v>
+        <v>0.3401090947965315</v>
       </c>
       <c r="G173" t="n">
-        <v>0.0277616646142036</v>
+        <v>0.02776166263288005</v>
       </c>
     </row>
     <row r="174">
@@ -6488,19 +6488,19 @@
         <v>117</v>
       </c>
       <c r="C174" t="n">
-        <v>-6.768162068207426</v>
+        <v>-6.768162079646432</v>
       </c>
       <c r="D174" t="n">
-        <v>-9.718318365579789</v>
+        <v>-9.71831843669257</v>
       </c>
       <c r="E174" t="n">
-        <v>0.1268557981366971</v>
+        <v>0.1268557988318011</v>
       </c>
       <c r="F174" t="n">
-        <v>0.02377217436807655</v>
+        <v>0.02377217463578063</v>
       </c>
       <c r="G174" t="n">
-        <v>-1.1352285683069</v>
+        <v>-1.135228567474305</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +6561,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.6426306395893</v>
+        <v>132.6426305849663</v>
       </c>
     </row>
     <row r="5">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>3.126888982545716</v>
+        <v>3.126888981258046</v>
       </c>
     </row>
   </sheetData>
